--- a/sources/sediments_2015_2017.xlsx
+++ b/sources/sediments_2015_2017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Отчет по Джанкуату 2023\Влекомые наносы, кавказ гидормет\влекомые наносы Толя\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Отчет по Джанкуату 2023\Влекомые наносы, кавказ гидормет\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19428" windowHeight="10560" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017'!$A$2:$T$24</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -1291,7 +1291,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1510,40 +1510,31 @@
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,6 +1552,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,12 +1574,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3027,7 +3024,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9161,7 +9157,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11907,36 +11902,36 @@
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="11.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="15" t="s">
         <v>14</v>
       </c>
@@ -11986,7 +11981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -12052,7 +12047,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
@@ -12105,7 +12100,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>42188</v>
       </c>
@@ -12170,7 +12165,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="19">
         <v>42213</v>
       </c>
@@ -12235,7 +12230,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B6" s="19">
         <v>42197</v>
       </c>
@@ -12300,7 +12295,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B7" s="19">
         <v>42190</v>
       </c>
@@ -12365,7 +12360,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B8" s="19">
         <v>42185</v>
       </c>
@@ -12430,7 +12425,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="19">
         <v>42195</v>
       </c>
@@ -12495,7 +12490,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B10" s="19">
         <v>42187</v>
       </c>
@@ -12556,7 +12551,7 @@
         <v>6.4710000000000011E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="19">
         <v>42187</v>
       </c>
@@ -12617,7 +12612,7 @@
         <v>3.7607499999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" s="19">
         <v>42186</v>
       </c>
@@ -12678,7 +12673,7 @@
         <v>0.11696599999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B13" s="19">
         <v>42190</v>
       </c>
@@ -12739,7 +12734,7 @@
         <v>2.99565E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21"/>
@@ -12803,7 +12798,7 @@
         <v>1654.545454545454</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
@@ -12858,14 +12853,14 @@
         <v>2.3249999999999953</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
       <c r="E16" s="31"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -12874,7 +12869,7 @@
       <c r="F17" s="3"/>
       <c r="T17" s="86"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -12883,7 +12878,7 @@
       <c r="F18" s="3"/>
       <c r="T18" s="86"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
       <c r="C19" s="36"/>
@@ -12894,21 +12889,21 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="19"/>
       <c r="C20" s="36"/>
       <c r="D20" s="21"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="19"/>
       <c r="C21" s="36"/>
       <c r="D21" s="21"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="36"/>
       <c r="D22" s="21"/>
@@ -12918,7 +12913,7 @@
       <c r="I22" s="3"/>
       <c r="K22" s="37"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B23" s="19"/>
       <c r="C23" s="36"/>
       <c r="D23" s="21"/>
@@ -12928,7 +12923,7 @@
       <c r="I23" s="3"/>
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B24" s="19"/>
       <c r="C24" s="36"/>
       <c r="D24" s="21"/>
@@ -12938,7 +12933,7 @@
       <c r="I24" s="3"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B25" s="19"/>
       <c r="C25" s="36"/>
       <c r="D25" s="21"/>
@@ -12948,7 +12943,7 @@
       <c r="I25" s="3"/>
       <c r="K25" s="37"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B26" s="19"/>
       <c r="C26" s="36"/>
       <c r="D26" s="21"/>
@@ -12958,7 +12953,7 @@
       <c r="I26" s="3"/>
       <c r="K26" s="37"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B27" s="19"/>
       <c r="C27" s="36"/>
       <c r="D27" s="21"/>
@@ -12968,7 +12963,7 @@
       <c r="I27" s="3"/>
       <c r="K27" s="37"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B28" s="19"/>
       <c r="C28" s="36"/>
       <c r="D28" s="21"/>
@@ -12978,7 +12973,7 @@
       <c r="I28" s="3"/>
       <c r="K28" s="37"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -12986,7 +12981,7 @@
       <c r="I29" s="3"/>
       <c r="K29" s="37"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -12994,7 +12989,7 @@
       <c r="I30" s="3"/>
       <c r="K30" s="37"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -13002,60 +12997,60 @@
       <c r="I31" s="3"/>
       <c r="K31" s="37"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="31"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="32"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21"/>
       <c r="E35" s="32"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
       <c r="E36" s="32"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="32"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21"/>
       <c r="E38" s="31"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -13079,32 +13074,32 @@
       <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="8.85546875" style="1"/>
-    <col min="20" max="20" width="17.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="17.109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+    <row r="1" spans="1:21" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="15" t="s">
         <v>14</v>
       </c>
@@ -13145,7 +13140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -13208,7 +13203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -13273,7 +13268,7 @@
       </c>
       <c r="U3" s="40"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -13338,7 +13333,7 @@
       </c>
       <c r="U4" s="41"/>
     </row>
-    <row r="5" spans="1:21" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>131</v>
       </c>
@@ -13403,7 +13398,7 @@
       </c>
       <c r="U5" s="40"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -13468,7 +13463,7 @@
       </c>
       <c r="U6" s="41"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>133</v>
       </c>
@@ -13533,7 +13528,7 @@
       </c>
       <c r="U7" s="40"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
@@ -13598,7 +13593,7 @@
       </c>
       <c r="U8" s="41"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>135</v>
       </c>
@@ -13663,7 +13658,7 @@
       </c>
       <c r="U9" s="40"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
@@ -13728,7 +13723,7 @@
       </c>
       <c r="U10" s="41"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>137</v>
       </c>
@@ -13793,7 +13788,7 @@
       </c>
       <c r="U11" s="40"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="H12" s="1">
         <f>AVERAGE(H3:H11)</f>
         <v>1.2444444444444445</v>
@@ -13847,61 +13842,61 @@
         <v>9.1502722222222221E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
   </sheetData>
@@ -13921,32 +13916,32 @@
       <selection activeCell="A3" sqref="A3:A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="19" width="8.85546875" style="1"/>
-    <col min="20" max="20" width="17.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="17.109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+    <row r="1" spans="1:20" s="18" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120"/>
       <c r="H1" s="15" t="s">
         <v>14</v>
       </c>
@@ -13987,7 +13982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="13" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
@@ -14050,7 +14045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -14109,7 +14104,7 @@
         <v>3.3280000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -14168,7 +14163,7 @@
         <v>6.0527500000000012E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -14227,7 +14222,7 @@
         <v>3.8563499999999994E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -14286,7 +14281,7 @@
         <v>3.6346999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -14345,7 +14340,7 @@
         <v>3.8294999999999996E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -14404,7 +14399,7 @@
         <v>3.6732999999999995E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -14463,7 +14458,7 @@
         <v>3.8347999999999993E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -14521,7 +14516,7 @@
         <v>3.0211499999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -14580,7 +14575,7 @@
         <v>3.3730999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -14639,7 +14634,7 @@
         <v>2.5107999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -14698,7 +14693,7 @@
         <v>3.0474999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -14757,7 +14752,7 @@
         <v>2.3344999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
@@ -14816,7 +14811,7 @@
         <v>9.018499999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -14875,7 +14870,7 @@
         <v>4.9100000000000012E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -14934,7 +14929,7 @@
         <v>1.1870499999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -14993,7 +14988,7 @@
         <v>2.2001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -15052,7 +15047,7 @@
         <v>3.0053999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -15111,7 +15106,7 @@
         <v>3.3226500000000006E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -15170,7 +15165,7 @@
         <v>1.1692000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -15229,7 +15224,7 @@
         <v>0.18261299999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -15288,7 +15283,7 @@
         <v>3.1278E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -15347,7 +15342,7 @@
         <v>3.5237999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -15407,7 +15402,7 @@
         <v>3.4859727272727271E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="H26" s="1">
@@ -15463,82 +15458,82 @@
         <v>3.0876499999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T27" s="65">
         <f>STDEV(T3:T24)</f>
         <v>3.5611259400486581E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="T28" s="65">
         <f>AVERAGE(T3:T24)</f>
         <v>3.4859727272727271E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E30" s="32"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E32" s="32"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="32"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="32"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="32"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="32"/>
     </row>
-    <row r="41" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="32"/>
     </row>
-    <row r="43" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E44" s="31"/>
     </row>
-    <row r="45" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E45" s="35"/>
     </row>
-    <row r="46" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E48" s="35"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="32"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="32"/>
     </row>
   </sheetData>
@@ -15558,9 +15553,9 @@
       <selection activeCell="AQ1" sqref="B1:AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" s="107" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="107" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="108" t="s">
         <v>197</v>
       </c>
@@ -15688,7 +15683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -15819,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1500</v>
       </c>
@@ -15950,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -16081,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>750</v>
       </c>
@@ -16212,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>500</v>
       </c>
@@ -16343,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>250</v>
       </c>
@@ -16474,7 +16469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -16605,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>50</v>
       </c>
@@ -16736,7 +16731,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -16867,7 +16862,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -16998,7 +16993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -17129,7 +17124,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -17276,13 +17271,13 @@
       <selection activeCell="AT36" sqref="AT36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="107" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="107" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="107" t="s">
         <v>197</v>
       </c>
@@ -17410,7 +17405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>208</v>
@@ -17542,7 +17537,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>214</v>
@@ -17674,7 +17669,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>218</v>
@@ -17806,7 +17801,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="112" t="s">
         <v>226</v>
       </c>
@@ -17948,7 +17943,7 @@
         <v>30.343982421875001</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>228</v>
       </c>
@@ -18082,7 +18077,7 @@
         <v>30.913101688442701</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -18216,7 +18211,7 @@
         <v>0.38220873598633198</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>232</v>
@@ -18348,7 +18343,7 @@
         <v>1.3382269046608399</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>226</v>
       </c>
@@ -18482,7 +18477,7 @@
         <v>17.477729041634301</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>228</v>
       </c>
@@ -18616,7 +18611,7 @@
         <v>3.35645759918626</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>233</v>
       </c>
@@ -18750,7 +18745,7 @@
         <v>-0.13753474938301299</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>232</v>
@@ -18882,7 +18877,7 @@
         <v>1.66788537273478</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>226</v>
       </c>
@@ -19016,7 +19011,7 @@
         <v>5.8383384484839898</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>228</v>
       </c>
@@ -19150,7 +19145,7 @@
         <v>1.7469394175275801</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>234</v>
       </c>
@@ -19284,7 +19279,7 @@
         <v>0.137534749383011</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>232</v>
@@ -19416,7 +19411,7 @@
         <v>1.66788537273479</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>235</v>
       </c>
@@ -19550,7 +19545,7 @@
         <v>17.8810966891511</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>236</v>
       </c>
@@ -19684,7 +19679,7 @@
         <v>3.3887705866984499</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -19818,7 +19813,7 @@
         <v>0.12715140779735201</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>232</v>
@@ -19950,7 +19945,7 @@
         <v>0.69332899450034302</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>235</v>
       </c>
@@ -20084,7 +20079,7 @@
         <v>5.8054209667054497</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>236</v>
       </c>
@@ -20218,7 +20213,7 @@
         <v>1.7607619724267101</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>238</v>
       </c>
@@ -20352,7 +20347,7 @@
         <v>-0.12715140779735201</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>232</v>
@@ -20484,7 +20479,7 @@
         <v>0.69332899450034302</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
@@ -20618,7 +20613,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>236</v>
       </c>
@@ -20752,7 +20747,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>248</v>
       </c>
@@ -20886,7 +20881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>254</v>
@@ -21018,7 +21013,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>260</v>
@@ -21150,7 +21145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>261</v>
@@ -21272,7 +21267,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>262</v>
@@ -21324,7 +21319,7 @@
       <c r="AQ31" s="90"/>
       <c r="AR31" s="90"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>263</v>
@@ -21456,7 +21451,7 @@
         <v>3.82192809488736</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>264</v>
@@ -21578,7 +21573,7 @@
         <v>7.1438561897747199</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>265</v>
@@ -21630,7 +21625,7 @@
       <c r="AQ34" s="90"/>
       <c r="AR34" s="90"/>
     </row>
-    <row r="35" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="114"/>
       <c r="B35" s="112" t="s">
         <v>138</v>
@@ -21762,7 +21757,7 @@
         <v>4.2628760656184097</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="114"/>
       <c r="B36" s="112" t="s">
         <v>139</v>
@@ -21899,7 +21894,7 @@
       </c>
       <c r="AT36" s="114"/>
     </row>
-    <row r="37" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" s="112" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="114"/>
       <c r="B37" s="112" t="s">
         <v>140</v>
@@ -22031,7 +22026,7 @@
         <v>82.397381220470905</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
       <c r="B38" s="1" t="s">
         <v>141</v>
@@ -22163,7 +22158,7 @@
         <v>19.329058586768401</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
       <c r="B39" s="1" t="s">
         <v>142</v>
@@ -22295,7 +22290,7 @@
         <v>78.134505154852505</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="90"/>
       <c r="B40" s="1" t="s">
         <v>143</v>
@@ -22427,7 +22422,7 @@
         <v>9.3596930358750896</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
       <c r="B41" s="1" t="s">
         <v>144</v>
@@ -22559,7 +22554,7 @@
         <v>55.044286612920999</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>266</v>
@@ -22691,7 +22686,7 @@
         <v>3.6012577038259099</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>267</v>
@@ -22823,7 +22818,7 @@
         <v>6.1435512411525899</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>268</v>
@@ -22955,7 +22950,7 @@
         <v>7.8739571721509503</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>269</v>
@@ -23087,7 +23082,7 @@
         <v>2.1864464639078198</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>270</v>
@@ -23219,7 +23214,7 @@
         <v>4.2726994683250403</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>271</v>
@@ -23351,7 +23346,7 @@
         <v>1.80255195975575</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>272</v>
@@ -23483,7 +23478,7 @@
         <v>3.2264612153981398</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>273</v>
@@ -23615,7 +23610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>274</v>
@@ -23747,7 +23742,7 @@
         <v>0.24274974203032401</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>275</v>
@@ -23879,7 +23874,7 @@
         <v>0.75725025796967604</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>276</v>
@@ -24011,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>277</v>
@@ -24143,7 +24138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>278</v>
@@ -24275,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>279</v>
@@ -24407,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>280</v>
@@ -24539,7 +24534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>281</v>
@@ -24671,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>282</v>
@@ -24803,7 +24798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>283</v>
@@ -24935,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>284</v>
@@ -25067,7 +25062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>285</v>
@@ -25199,7 +25194,7 @@
         <v>0.24274974203032401</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>286</v>
@@ -25331,7 +25326,7 @@
         <v>0.16810762900352799</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>287</v>
@@ -25463,7 +25458,7 @@
         <v>7.7952457011284199E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>288</v>
@@ -25595,7 +25590,7 @@
         <v>0.17484050553371</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>289</v>
@@ -25727,7 +25722,7 @@
         <v>0.24237515615188701</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
         <v>290</v>
@@ -25859,7 +25854,7 @@
         <v>4.7805097946146603E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>291</v>
@@ -26000,55 +25995,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="14" width="8.85546875" style="3"/>
-    <col min="22" max="22" width="17.140625" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="5" max="14" width="8.88671875" style="3"/>
+    <col min="22" max="22" width="17.109375" customWidth="1"/>
+    <col min="23" max="23" width="10.109375" customWidth="1"/>
     <col min="32" max="32" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="124" t="s">
+      <c r="H1" s="125" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="124" t="s">
+      <c r="I1" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="L1" s="122" t="s">
         <v>25</v>
       </c>
       <c r="M1" s="121" t="s">
@@ -26075,40 +26070,40 @@
       <c r="T1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="U1" s="124" t="s">
         <v>111</v>
       </c>
       <c r="V1" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="125" t="s">
+      <c r="W1" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="120" t="s">
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="123" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
+    <row r="2" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
       <c r="M2" s="121"/>
       <c r="N2" s="121"/>
       <c r="O2" s="121"/>
@@ -26117,7 +26112,7 @@
       <c r="R2" s="121"/>
       <c r="S2" s="121"/>
       <c r="T2" s="121"/>
-      <c r="U2" s="122"/>
+      <c r="U2" s="124"/>
       <c r="V2" s="121"/>
       <c r="W2" s="83" t="s">
         <v>25</v>
@@ -26146,21 +26141,21 @@
       <c r="AE2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="120"/>
+      <c r="AF2" s="123"/>
     </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+    <row r="3" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
       <c r="M3" s="121"/>
       <c r="N3" s="121"/>
       <c r="O3" s="121"/>
@@ -26169,7 +26164,7 @@
       <c r="R3" s="121"/>
       <c r="S3" s="121"/>
       <c r="T3" s="121"/>
-      <c r="U3" s="122"/>
+      <c r="U3" s="124"/>
       <c r="V3" s="121"/>
       <c r="W3" s="44">
         <v>15</v>
@@ -26198,7 +26193,7 @@
       <c r="AE3" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="AF3" s="120"/>
+      <c r="AF3" s="123"/>
       <c r="AG3" s="1" t="s">
         <v>138</v>
       </c>
@@ -26221,7 +26216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -26285,46 +26280,46 @@
         <v>50</v>
       </c>
       <c r="U4" s="46">
-        <f t="shared" ref="U4:U9" si="0">SUM(L4:T4)</f>
+        <f>SUM(L4:T4)</f>
         <v>1155</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W4" s="80">
-        <f>(L4*100)/$U$4</f>
+        <f>(L4*100)/$U4</f>
         <v>0.4329004329004329</v>
       </c>
       <c r="X4" s="80">
-        <f>(M4*100)/$U$4</f>
+        <f t="shared" ref="X4:AE4" si="0">(M4*100)/$U4</f>
         <v>0.86580086580086579</v>
       </c>
       <c r="Y4" s="80">
-        <f t="shared" ref="Y4:AE19" si="1">(N4*100)/$U$4</f>
+        <f t="shared" si="0"/>
         <v>1.7316017316017316</v>
       </c>
       <c r="Z4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.4632034632034632</v>
       </c>
       <c r="AA4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.255411255411255</v>
       </c>
       <c r="AB4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43.290043290043293</v>
       </c>
       <c r="AC4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.316017316017316</v>
       </c>
       <c r="AD4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17.316017316017316</v>
       </c>
       <c r="AE4" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.329004329004329</v>
       </c>
       <c r="AF4" s="81">
@@ -26353,7 +26348,7 @@
         <v>1.2089021457893401</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -26381,7 +26376,7 @@
         <v>8.1160499999999995</v>
       </c>
       <c r="J5" s="70">
-        <f t="shared" ref="J5:J6" si="2">(G5*0.887/(D5*60))*(E5/25)</f>
+        <f t="shared" ref="J5:J6" si="1">(G5*0.887/(D5*60))*(E5/25)</f>
         <v>0.13526749999999998</v>
       </c>
       <c r="K5" s="70">
@@ -26416,51 +26411,51 @@
         <v>5</v>
       </c>
       <c r="U5" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U5:U9" si="2">SUM(L5:T5)</f>
         <v>1175</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="W5" s="80">
-        <f t="shared" ref="W5:W20" si="3">(L5*100)/$U$4</f>
+        <f t="shared" ref="W5:W20" si="3">(L5*100)/$U5</f>
         <v>0</v>
       </c>
       <c r="X5" s="80">
-        <f t="shared" ref="X5:AE20" si="4">(M5*100)/$U$4</f>
-        <v>0.86580086580086579</v>
+        <f t="shared" ref="X5:X20" si="4">(M5*100)/$U5</f>
+        <v>0.85106382978723405</v>
       </c>
       <c r="Y5" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" ref="Y5:Y20" si="5">(N5*100)/$U5</f>
+        <v>1.7021276595744681</v>
       </c>
       <c r="Z5" s="80">
-        <f t="shared" si="1"/>
-        <v>10.38961038961039</v>
+        <f t="shared" ref="Z5:Z20" si="6">(O5*100)/$U5</f>
+        <v>10.212765957446809</v>
       </c>
       <c r="AA5" s="80">
-        <f t="shared" si="1"/>
-        <v>23.376623376623378</v>
+        <f t="shared" ref="AA5:AA20" si="7">(P5*100)/$U5</f>
+        <v>22.978723404255319</v>
       </c>
       <c r="AB5" s="80">
-        <f t="shared" si="1"/>
-        <v>55.411255411255411</v>
+        <f t="shared" ref="AB5:AB20" si="8">(Q5*100)/$U5</f>
+        <v>54.468085106382979</v>
       </c>
       <c r="AC5" s="80">
-        <f t="shared" si="1"/>
-        <v>6.0606060606060606</v>
+        <f t="shared" ref="AC5:AC20" si="9">(R5*100)/$U5</f>
+        <v>5.957446808510638</v>
       </c>
       <c r="AD5" s="80">
-        <f t="shared" si="1"/>
-        <v>3.4632034632034632</v>
+        <f t="shared" ref="AD5:AD20" si="10">(S5*100)/$U5</f>
+        <v>3.4042553191489362</v>
       </c>
       <c r="AE5" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" ref="AE5:AE20" si="11">(T5*100)/$U5</f>
+        <v>0.42553191489361702</v>
       </c>
       <c r="AF5" s="81">
-        <f t="shared" ref="AF5:AF20" si="5">(W5*$W$3+X5*$X$3+Y5*$Y$3+Z5*$Z$3+AA5*$AA$3+AB5*$AB$3+AC5*$AC$3+AD5*$AD$3+AE5*$AE$3)/100</f>
-        <v>1.9014069264069264</v>
+        <f t="shared" ref="AF5:AF20" si="12">(W5*$W$3+X5*$X$3+Y5*$Y$3+Z5*$Z$3+AA5*$AA$3+AB5*$AB$3+AC5*$AC$3+AD5*$AD$3+AE5*$AE$3)/100</f>
+        <v>1.8690425531914892</v>
       </c>
       <c r="AG5" s="89">
         <v>1.0027112750502001</v>
@@ -26484,7 +26479,7 @@
         <v>1.2039105444995399</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -26512,7 +26507,7 @@
         <v>1.9123720000000004</v>
       </c>
       <c r="J6" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.1872866666666673E-2</v>
       </c>
       <c r="K6" s="70">
@@ -26547,7 +26542,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1115</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -26555,43 +26550,43 @@
       </c>
       <c r="W6" s="80">
         <f t="shared" si="3"/>
-        <v>1.7316017316017316</v>
+        <v>1.7937219730941705</v>
       </c>
       <c r="X6" s="80">
         <f t="shared" si="4"/>
-        <v>3.4632034632034632</v>
+        <v>3.5874439461883409</v>
       </c>
       <c r="Y6" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="5"/>
+        <v>0.89686098654708524</v>
       </c>
       <c r="Z6" s="80">
-        <f t="shared" si="1"/>
-        <v>12.987012987012987</v>
+        <f t="shared" si="6"/>
+        <v>13.452914798206278</v>
       </c>
       <c r="AA6" s="80">
-        <f t="shared" si="1"/>
-        <v>30.303030303030305</v>
+        <f t="shared" si="7"/>
+        <v>31.390134529147982</v>
       </c>
       <c r="AB6" s="80">
-        <f t="shared" si="1"/>
-        <v>45.021645021645021</v>
+        <f t="shared" si="8"/>
+        <v>46.63677130044843</v>
       </c>
       <c r="AC6" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>0.89686098654708524</v>
       </c>
       <c r="AD6" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="10"/>
+        <v>0.89686098654708524</v>
       </c>
       <c r="AE6" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>0.44843049327354262</v>
       </c>
       <c r="AF6" s="81">
-        <f t="shared" si="5"/>
-        <v>2.4336580086580089</v>
+        <f t="shared" si="12"/>
+        <v>2.5209641255605377</v>
       </c>
       <c r="AG6" s="89">
         <v>1.1222127069677899</v>
@@ -26615,7 +26610,7 @@
         <v>1.4001321017220401</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -26640,7 +26635,7 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="I7" s="70">
-        <f t="shared" ref="I7:I15" si="6">(H7/D7)*(E7/25)</f>
+        <f t="shared" ref="I7:I15" si="13">(H7/D7)*(E7/25)</f>
         <v>1.1466000000000001</v>
       </c>
       <c r="J7" s="70">
@@ -26648,7 +26643,7 @@
         <v>1.9110000000000002E-2</v>
       </c>
       <c r="K7" s="70">
-        <f t="shared" ref="K7:K15" si="7">(H7*1000/(D7*60))*(E7/25)</f>
+        <f t="shared" ref="K7:K15" si="14">(H7*1000/(D7*60))*(E7/25)</f>
         <v>19.11</v>
       </c>
       <c r="L7" s="1">
@@ -26679,7 +26674,7 @@
         <v>5</v>
       </c>
       <c r="U7" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>585</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -26687,43 +26682,43 @@
       </c>
       <c r="W7" s="80">
         <f t="shared" si="3"/>
-        <v>3.4632034632034632</v>
+        <v>6.8376068376068373</v>
       </c>
       <c r="X7" s="80">
         <f t="shared" si="4"/>
-        <v>1.7316017316017316</v>
+        <v>3.4188034188034186</v>
       </c>
       <c r="Y7" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="5"/>
+        <v>3.4188034188034186</v>
       </c>
       <c r="Z7" s="80">
-        <f t="shared" si="1"/>
-        <v>6.0606060606060606</v>
+        <f t="shared" si="6"/>
+        <v>11.965811965811966</v>
       </c>
       <c r="AA7" s="80">
-        <f t="shared" si="1"/>
-        <v>16.450216450216452</v>
+        <f t="shared" si="7"/>
+        <v>32.478632478632477</v>
       </c>
       <c r="AB7" s="80">
-        <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
+        <f t="shared" si="8"/>
+        <v>35.897435897435898</v>
       </c>
       <c r="AC7" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>1.7094017094017093</v>
       </c>
       <c r="AD7" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="10"/>
+        <v>3.4188034188034186</v>
       </c>
       <c r="AE7" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>0.85470085470085466</v>
       </c>
       <c r="AF7" s="81">
-        <f t="shared" si="5"/>
-        <v>1.6559523809523811</v>
+        <f t="shared" si="12"/>
+        <v>3.2694444444444439</v>
       </c>
       <c r="AG7" s="89">
         <v>1.08065406136885</v>
@@ -26747,7 +26742,7 @@
         <v>1.6395396951454999</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -26776,11 +26771,11 @@
         <v>5.9159999999999995</v>
       </c>
       <c r="J8" s="70">
-        <f t="shared" ref="J8:J20" si="8">(H8/(D8*60))*(E8/25)</f>
+        <f t="shared" ref="J8:J20" si="15">(H8/(D8*60))*(E8/25)</f>
         <v>9.8599999999999993E-2</v>
       </c>
       <c r="K8" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>98.59999999999998</v>
       </c>
       <c r="L8" s="1">
@@ -26811,7 +26806,7 @@
         <v>10</v>
       </c>
       <c r="U8" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1450</v>
       </c>
       <c r="V8" s="1" t="s">
@@ -26819,43 +26814,43 @@
       </c>
       <c r="W8" s="80">
         <f t="shared" si="3"/>
-        <v>5.1948051948051948</v>
+        <v>4.1379310344827589</v>
       </c>
       <c r="X8" s="80">
         <f t="shared" si="4"/>
-        <v>1.7316017316017316</v>
+        <v>1.3793103448275863</v>
       </c>
       <c r="Y8" s="80">
-        <f t="shared" si="1"/>
-        <v>7.7922077922077921</v>
+        <f t="shared" si="5"/>
+        <v>6.2068965517241379</v>
       </c>
       <c r="Z8" s="80">
-        <f t="shared" si="1"/>
-        <v>19.047619047619047</v>
+        <f t="shared" si="6"/>
+        <v>15.172413793103448</v>
       </c>
       <c r="AA8" s="80">
-        <f t="shared" si="1"/>
-        <v>40.692640692640694</v>
+        <f t="shared" si="7"/>
+        <v>32.413793103448278</v>
       </c>
       <c r="AB8" s="80">
-        <f t="shared" si="1"/>
-        <v>45.021645021645021</v>
+        <f t="shared" si="8"/>
+        <v>35.862068965517238</v>
       </c>
       <c r="AC8" s="80">
-        <f t="shared" si="1"/>
-        <v>3.4632034632034632</v>
+        <f t="shared" si="9"/>
+        <v>2.7586206896551726</v>
       </c>
       <c r="AD8" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="10"/>
+        <v>1.3793103448275863</v>
       </c>
       <c r="AE8" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="11"/>
+        <v>0.68965517241379315</v>
       </c>
       <c r="AF8" s="81">
-        <f t="shared" si="5"/>
-        <v>3.7469696969696975</v>
+        <f t="shared" si="12"/>
+        <v>2.9846551724137935</v>
       </c>
       <c r="AG8" s="89">
         <v>1.10514124578675</v>
@@ -26879,7 +26874,7 @@
         <v>1.7209815872126202</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -26905,15 +26900,15 @@
         <v>0.78</v>
       </c>
       <c r="I9" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.12</v>
       </c>
       <c r="J9" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="K9" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="L9" s="1">
@@ -26944,7 +26939,7 @@
         <v>2</v>
       </c>
       <c r="U9" s="37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>887</v>
       </c>
       <c r="V9" s="46" t="s">
@@ -26952,43 +26947,43 @@
       </c>
       <c r="W9" s="80">
         <f t="shared" si="3"/>
-        <v>3.4632034632034632</v>
+        <v>4.5095828635851181</v>
       </c>
       <c r="X9" s="80">
         <f t="shared" si="4"/>
-        <v>1.7316017316017316</v>
+        <v>2.254791431792559</v>
       </c>
       <c r="Y9" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f>(N9*100)/$U9</f>
+        <v>2.254791431792559</v>
       </c>
       <c r="Z9" s="80">
-        <f t="shared" si="1"/>
-        <v>11.255411255411255</v>
+        <f t="shared" si="6"/>
+        <v>14.656144306651635</v>
       </c>
       <c r="AA9" s="80">
-        <f t="shared" si="1"/>
-        <v>25.10822510822511</v>
+        <f t="shared" si="7"/>
+        <v>32.694475760992106</v>
       </c>
       <c r="AB9" s="80">
-        <f t="shared" si="1"/>
-        <v>32.034632034632033</v>
+        <f t="shared" si="8"/>
+        <v>41.713641488162345</v>
       </c>
       <c r="AC9" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>1.1273957158962795</v>
       </c>
       <c r="AD9" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="10"/>
+        <v>0.56369785794813976</v>
       </c>
       <c r="AE9" s="80">
-        <f t="shared" si="1"/>
-        <v>0.17316017316017315</v>
+        <f t="shared" si="11"/>
+        <v>0.22547914317925591</v>
       </c>
       <c r="AF9" s="81">
-        <f t="shared" si="5"/>
-        <v>2.241233766233766</v>
+        <f t="shared" si="12"/>
+        <v>2.9184047350620062</v>
       </c>
       <c r="AG9" s="89">
         <v>1.1437595455032599</v>
@@ -27012,7 +27007,7 @@
         <v>1.483599461621</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -27035,7 +27030,7 @@
         <v>3.1309999999999998</v>
       </c>
       <c r="I10" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>12.774479999999999</v>
       </c>
       <c r="J10" s="70">
@@ -27043,7 +27038,7 @@
         <v>0.21290799999999996</v>
       </c>
       <c r="K10" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>212.90799999999999</v>
       </c>
       <c r="L10" s="1">
@@ -27074,7 +27069,7 @@
         <v>60</v>
       </c>
       <c r="U10" s="37">
-        <f t="shared" ref="U10:U15" si="9">SUM(L10:T10)</f>
+        <f t="shared" ref="U10:U15" si="16">SUM(L10:T10)</f>
         <v>3131</v>
       </c>
       <c r="V10" s="46" t="s">
@@ -27082,43 +27077,43 @@
       </c>
       <c r="W10" s="80">
         <f t="shared" si="3"/>
-        <v>4.329004329004329</v>
+        <v>1.5969338869370808</v>
       </c>
       <c r="X10" s="80">
         <f t="shared" si="4"/>
-        <v>4.329004329004329</v>
+        <v>1.5969338869370808</v>
       </c>
       <c r="Y10" s="80">
-        <f t="shared" si="1"/>
-        <v>11.255411255411255</v>
+        <f t="shared" si="5"/>
+        <v>4.1520281060364104</v>
       </c>
       <c r="Z10" s="80">
-        <f t="shared" si="1"/>
-        <v>29.437229437229437</v>
+        <f t="shared" si="6"/>
+        <v>10.85915043117215</v>
       </c>
       <c r="AA10" s="80">
-        <f t="shared" si="1"/>
-        <v>68.484848484848484</v>
+        <f t="shared" si="7"/>
+        <v>25.263494091344619</v>
       </c>
       <c r="AB10" s="80">
-        <f t="shared" si="1"/>
-        <v>130.73593073593074</v>
+        <f t="shared" si="8"/>
+        <v>48.227403385499841</v>
       </c>
       <c r="AC10" s="80">
-        <f t="shared" si="1"/>
-        <v>12.121212121212121</v>
+        <f t="shared" si="9"/>
+        <v>4.4714148834238259</v>
       </c>
       <c r="AD10" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="10"/>
+        <v>1.916320664324497</v>
       </c>
       <c r="AE10" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="11"/>
+        <v>1.916320664324497</v>
       </c>
       <c r="AF10" s="81">
-        <f t="shared" si="5"/>
-        <v>6.2679653679653669</v>
+        <f t="shared" si="12"/>
+        <v>2.3122005748961998</v>
       </c>
       <c r="AG10" s="89">
         <v>1.02467440737453</v>
@@ -27142,7 +27137,7 @@
         <v>1.4188417253801799</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -27166,15 +27161,15 @@
         <v>5.2169999999999996</v>
       </c>
       <c r="I11" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>32.196342857142859</v>
       </c>
       <c r="J11" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0.53660571428571435</v>
       </c>
       <c r="K11" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>536.60571428571427</v>
       </c>
       <c r="L11" s="1">
@@ -27205,7 +27200,7 @@
         <v>7</v>
       </c>
       <c r="U11" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>5217</v>
       </c>
       <c r="V11" s="1" t="s">
@@ -27213,43 +27208,43 @@
       </c>
       <c r="W11" s="80">
         <f t="shared" si="3"/>
-        <v>5.1948051948051948</v>
+        <v>1.1500862564692351</v>
       </c>
       <c r="X11" s="80">
         <f t="shared" si="4"/>
-        <v>6.9264069264069263</v>
+        <v>1.5334483419589802</v>
       </c>
       <c r="Y11" s="80">
-        <f t="shared" si="1"/>
-        <v>12.987012987012987</v>
+        <f t="shared" si="5"/>
+        <v>2.8752156411730878</v>
       </c>
       <c r="Z11" s="80">
-        <f t="shared" si="1"/>
-        <v>56.277056277056275</v>
+        <f t="shared" si="6"/>
+        <v>12.459267778416715</v>
       </c>
       <c r="AA11" s="80">
-        <f t="shared" si="1"/>
-        <v>107.35930735930737</v>
+        <f>(P11*100)/$U11</f>
+        <v>23.768449300364193</v>
       </c>
       <c r="AB11" s="80">
-        <f t="shared" si="1"/>
-        <v>221.64502164502164</v>
+        <f t="shared" si="8"/>
+        <v>49.070346942687365</v>
       </c>
       <c r="AC11" s="80">
-        <f t="shared" si="1"/>
-        <v>27.705627705627705</v>
+        <f t="shared" si="9"/>
+        <v>6.1337933678359207</v>
       </c>
       <c r="AD11" s="80">
-        <f t="shared" si="1"/>
-        <v>12.987012987012987</v>
+        <f t="shared" si="10"/>
+        <v>2.8752156411730878</v>
       </c>
       <c r="AE11" s="80">
-        <f t="shared" si="1"/>
-        <v>0.60606060606060608</v>
+        <f t="shared" si="11"/>
+        <v>0.13417672992141078</v>
       </c>
       <c r="AF11" s="81">
-        <f t="shared" si="5"/>
-        <v>9.9992424242424232</v>
+        <f t="shared" si="12"/>
+        <v>2.2137483227908756</v>
       </c>
       <c r="AG11" s="89">
         <v>1.0121765372737199</v>
@@ -27273,7 +27268,7 @@
         <v>1.4120883512289299</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -27296,15 +27291,15 @@
         <v>0.28799999999999998</v>
       </c>
       <c r="I12" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>1.5263999999999998</v>
       </c>
       <c r="J12" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>2.5439999999999997E-2</v>
       </c>
       <c r="K12" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>25.439999999999998</v>
       </c>
       <c r="L12" s="1">
@@ -27335,7 +27330,7 @@
         <v>5</v>
       </c>
       <c r="U12" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>288</v>
       </c>
       <c r="V12" s="1" t="s">
@@ -27347,39 +27342,39 @@
       </c>
       <c r="X12" s="80">
         <f t="shared" si="4"/>
-        <v>0.60606060606060608</v>
+        <v>2.4305555555555554</v>
       </c>
       <c r="Y12" s="80">
-        <f t="shared" si="1"/>
-        <v>0.51948051948051943</v>
+        <f t="shared" si="5"/>
+        <v>2.0833333333333335</v>
       </c>
       <c r="Z12" s="80">
-        <f t="shared" si="1"/>
-        <v>3.4632034632034632</v>
+        <f t="shared" si="6"/>
+        <v>13.888888888888889</v>
       </c>
       <c r="AA12" s="80">
-        <f t="shared" si="1"/>
-        <v>8.6580086580086579</v>
+        <f t="shared" si="7"/>
+        <v>34.722222222222221</v>
       </c>
       <c r="AB12" s="80">
-        <f t="shared" si="1"/>
-        <v>9.5238095238095237</v>
+        <f t="shared" si="8"/>
+        <v>38.194444444444443</v>
       </c>
       <c r="AC12" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="AD12" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="10"/>
+        <v>3.4722222222222223</v>
       </c>
       <c r="AE12" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>1.7361111111111112</v>
       </c>
       <c r="AF12" s="81">
-        <f t="shared" si="5"/>
-        <v>0.5622294372294373</v>
+        <f t="shared" si="12"/>
+        <v>2.2547743055555554</v>
       </c>
       <c r="AG12" s="89">
         <v>1.0242340699375099</v>
@@ -27403,7 +27398,7 @@
         <v>1.4328738118253801</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -27426,15 +27421,15 @@
         <v>1.25</v>
       </c>
       <c r="I13" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>5.4</v>
       </c>
       <c r="J13" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="K13" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>90.000000000000014</v>
       </c>
       <c r="L13" s="1">
@@ -27465,7 +27460,7 @@
         <v>10</v>
       </c>
       <c r="U13" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>1250</v>
       </c>
       <c r="V13" s="1" t="s">
@@ -27473,43 +27468,43 @@
       </c>
       <c r="W13" s="80">
         <f t="shared" si="3"/>
-        <v>25.974025974025974</v>
+        <v>24</v>
       </c>
       <c r="X13" s="80">
         <f t="shared" si="4"/>
-        <v>11.255411255411255</v>
+        <v>10.4</v>
       </c>
       <c r="Y13" s="80">
-        <f t="shared" si="1"/>
-        <v>13.852813852813853</v>
+        <f t="shared" si="5"/>
+        <v>12.8</v>
       </c>
       <c r="Z13" s="80">
-        <f t="shared" si="1"/>
-        <v>23.376623376623378</v>
+        <f t="shared" si="6"/>
+        <v>21.6</v>
       </c>
       <c r="AA13" s="80">
-        <f t="shared" si="1"/>
-        <v>20.779220779220779</v>
+        <f t="shared" si="7"/>
+        <v>19.2</v>
       </c>
       <c r="AB13" s="80">
-        <f t="shared" si="1"/>
-        <v>10.38961038961039</v>
+        <f t="shared" si="8"/>
+        <v>9.6</v>
       </c>
       <c r="AC13" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>0.8</v>
       </c>
       <c r="AD13" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="10"/>
+        <v>0.8</v>
       </c>
       <c r="AE13" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="11"/>
+        <v>0.8</v>
       </c>
       <c r="AF13" s="81">
-        <f t="shared" si="5"/>
-        <v>7.2740259740259727</v>
+        <f t="shared" si="12"/>
+        <v>6.7211999999999996</v>
       </c>
       <c r="AG13" s="89">
         <v>1.7310731220122899</v>
@@ -27533,7 +27528,7 @@
         <v>7.0310238767561408</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -27553,15 +27548,15 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="I14" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.4555999999999996</v>
       </c>
       <c r="J14" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.7593333333333323E-2</v>
       </c>
       <c r="K14" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>57.593333333333334</v>
       </c>
       <c r="L14" s="1">
@@ -27592,7 +27587,7 @@
         <v>5</v>
       </c>
       <c r="U14" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>815</v>
       </c>
       <c r="V14" s="1" t="s">
@@ -27600,43 +27595,43 @@
       </c>
       <c r="W14" s="80">
         <f t="shared" si="3"/>
-        <v>1.7316017316017316</v>
+        <v>2.4539877300613497</v>
       </c>
       <c r="X14" s="80">
         <f t="shared" si="4"/>
-        <v>3.4632034632034632</v>
+        <v>4.9079754601226995</v>
       </c>
       <c r="Y14" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="5"/>
+        <v>7.3619631901840492</v>
       </c>
       <c r="Z14" s="80">
-        <f t="shared" si="1"/>
-        <v>15.584415584415584</v>
+        <f t="shared" si="6"/>
+        <v>22.085889570552148</v>
       </c>
       <c r="AA14" s="80">
-        <f t="shared" si="1"/>
-        <v>18.181818181818183</v>
+        <f t="shared" si="7"/>
+        <v>25.766871165644172</v>
       </c>
       <c r="AB14" s="80">
-        <f t="shared" si="1"/>
-        <v>22.510822510822511</v>
+        <f t="shared" si="8"/>
+        <v>31.901840490797547</v>
       </c>
       <c r="AC14" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="9"/>
+        <v>2.4539877300613497</v>
       </c>
       <c r="AD14" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="10"/>
+        <v>2.4539877300613497</v>
       </c>
       <c r="AE14" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>0.61349693251533743</v>
       </c>
       <c r="AF14" s="81">
-        <f t="shared" si="5"/>
-        <v>2.2338744588744586</v>
+        <f t="shared" si="12"/>
+        <v>3.16579754601227</v>
       </c>
       <c r="AG14" s="89">
         <v>1.1021989175087898</v>
@@ -27660,7 +27655,7 @@
         <v>2.4154216247901301</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -27680,15 +27675,15 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="I15" s="70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>3.0060000000000002</v>
       </c>
       <c r="J15" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.0099999999999999E-2</v>
       </c>
       <c r="K15" s="70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>50.100000000000009</v>
       </c>
       <c r="L15" s="1">
@@ -27719,7 +27714,7 @@
         <v>60</v>
       </c>
       <c r="U15" s="37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>835</v>
       </c>
       <c r="V15" s="1" t="s">
@@ -27731,39 +27726,39 @@
       </c>
       <c r="X15" s="80">
         <f t="shared" si="4"/>
-        <v>0.4329004329004329</v>
+        <v>0.59880239520958078</v>
       </c>
       <c r="Y15" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="5"/>
+        <v>1.1976047904191616</v>
       </c>
       <c r="Z15" s="80">
-        <f t="shared" si="1"/>
-        <v>4.329004329004329</v>
+        <f t="shared" si="6"/>
+        <v>5.9880239520958085</v>
       </c>
       <c r="AA15" s="80">
-        <f t="shared" si="1"/>
-        <v>10.38961038961039</v>
+        <f t="shared" si="7"/>
+        <v>14.37125748502994</v>
       </c>
       <c r="AB15" s="80">
-        <f t="shared" si="1"/>
-        <v>40.692640692640694</v>
+        <f t="shared" si="8"/>
+        <v>56.287425149700596</v>
       </c>
       <c r="AC15" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="9"/>
+        <v>7.1856287425149699</v>
       </c>
       <c r="AD15" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="10"/>
+        <v>7.1856287425149699</v>
       </c>
       <c r="AE15" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="11"/>
+        <v>7.1856287425149699</v>
       </c>
       <c r="AF15" s="81">
-        <f t="shared" si="5"/>
-        <v>1.074891774891775</v>
+        <f t="shared" si="12"/>
+        <v>1.4868263473053893</v>
       </c>
       <c r="AG15" s="89">
         <v>0.32797702610936197</v>
@@ -27787,7 +27782,7 @@
         <v>0.8878488379654621</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="J16" s="70"/>
       <c r="W16" s="80"/>
       <c r="X16" s="80"/>
@@ -27798,12 +27793,9 @@
       <c r="AC16" s="80"/>
       <c r="AD16" s="80"/>
       <c r="AE16" s="80"/>
-      <c r="AF16" s="81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="AF16" s="81"/>
     </row>
-    <row r="17" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="74">
         <v>6</v>
       </c>
@@ -27833,7 +27825,7 @@
         <v>0.60480000000000012</v>
       </c>
       <c r="J17" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.0080000000000002E-2</v>
       </c>
       <c r="K17" s="77">
@@ -27876,43 +27868,43 @@
       </c>
       <c r="W17" s="80">
         <f t="shared" si="3"/>
-        <v>3.4632034632034632</v>
+        <v>6.4102564102564106</v>
       </c>
       <c r="X17" s="80">
         <f t="shared" si="4"/>
-        <v>1.7316017316017316</v>
+        <v>3.2051282051282053</v>
       </c>
       <c r="Y17" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="5"/>
+        <v>3.2051282051282053</v>
       </c>
       <c r="Z17" s="80">
-        <f t="shared" si="1"/>
-        <v>11.255411255411255</v>
+        <f t="shared" si="6"/>
+        <v>20.833333333333332</v>
       </c>
       <c r="AA17" s="80">
-        <f t="shared" si="1"/>
-        <v>2.5108225108225106</v>
+        <f t="shared" si="7"/>
+        <v>4.6474358974358978</v>
       </c>
       <c r="AB17" s="80">
-        <f t="shared" si="1"/>
-        <v>32.034632034632033</v>
+        <f t="shared" si="8"/>
+        <v>59.294871794871796</v>
       </c>
       <c r="AC17" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>1.6025641025641026</v>
       </c>
       <c r="AD17" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="10"/>
+        <v>0.80128205128205132</v>
       </c>
       <c r="AE17" s="80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF17" s="81">
-        <f t="shared" si="5"/>
-        <v>1.6760822510822511</v>
+        <f t="shared" si="12"/>
+        <v>3.1023637820512824</v>
       </c>
       <c r="AG17" s="89">
         <v>1.0928596292836001</v>
@@ -27936,7 +27928,7 @@
         <v>2.4068276285260799</v>
       </c>
     </row>
-    <row r="18" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="74">
         <v>9</v>
       </c>
@@ -27964,7 +27956,7 @@
         <v>2.3896000000000002</v>
       </c>
       <c r="J18" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>3.9826666666666663E-2</v>
       </c>
       <c r="K18" s="77">
@@ -28007,43 +27999,43 @@
       </c>
       <c r="W18" s="80">
         <f t="shared" si="3"/>
-        <v>19.047619047619047</v>
+        <v>42.71844660194175</v>
       </c>
       <c r="X18" s="80">
         <f t="shared" si="4"/>
-        <v>5.1948051948051948</v>
+        <v>11.650485436893204</v>
       </c>
       <c r="Y18" s="80">
-        <f t="shared" si="1"/>
-        <v>2.5974025974025974</v>
+        <f t="shared" si="5"/>
+        <v>5.825242718446602</v>
       </c>
       <c r="Z18" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="6"/>
+        <v>11.650485436893204</v>
       </c>
       <c r="AA18" s="80">
-        <f t="shared" si="1"/>
-        <v>5.1948051948051948</v>
+        <f t="shared" si="7"/>
+        <v>11.650485436893204</v>
       </c>
       <c r="AB18" s="80">
-        <f t="shared" si="1"/>
-        <v>4.329004329004329</v>
+        <f t="shared" si="8"/>
+        <v>9.7087378640776691</v>
       </c>
       <c r="AC18" s="80">
-        <f t="shared" si="1"/>
-        <v>1.7316017316017316</v>
+        <f t="shared" si="9"/>
+        <v>3.883495145631068</v>
       </c>
       <c r="AD18" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="10"/>
+        <v>1.941747572815534</v>
       </c>
       <c r="AE18" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>0.970873786407767</v>
       </c>
       <c r="AF18" s="81">
-        <f t="shared" si="5"/>
-        <v>3.8609307359307361</v>
+        <f t="shared" si="12"/>
+        <v>8.6589805825242721</v>
       </c>
       <c r="AG18" s="89">
         <v>1.2570133745218299</v>
@@ -28067,7 +28059,7 @@
         <v>1.15992721172797</v>
       </c>
     </row>
-    <row r="19" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="74">
         <v>10</v>
       </c>
@@ -28095,7 +28087,7 @@
         <v>3.5519999999999996</v>
       </c>
       <c r="J19" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="K19" s="77">
@@ -28138,43 +28130,43 @@
       </c>
       <c r="W19" s="80">
         <f t="shared" si="3"/>
-        <v>12.121212121212121</v>
+        <v>27.027027027027028</v>
       </c>
       <c r="X19" s="80">
         <f t="shared" si="4"/>
-        <v>0.86580086580086579</v>
+        <v>1.9305019305019304</v>
       </c>
       <c r="Y19" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="5"/>
+        <v>1.9305019305019304</v>
       </c>
       <c r="Z19" s="80">
-        <f t="shared" si="1"/>
-        <v>2.5974025974025974</v>
+        <f t="shared" si="6"/>
+        <v>5.7915057915057915</v>
       </c>
       <c r="AA19" s="80">
-        <f t="shared" si="1"/>
-        <v>1.1255411255411256</v>
+        <f t="shared" si="7"/>
+        <v>2.5096525096525095</v>
       </c>
       <c r="AB19" s="80">
-        <f t="shared" si="1"/>
-        <v>25.10822510822511</v>
+        <f t="shared" si="8"/>
+        <v>55.984555984555982</v>
       </c>
       <c r="AC19" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>1.9305019305019304</v>
       </c>
       <c r="AD19" s="80">
-        <f t="shared" si="1"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="10"/>
+        <v>1.9305019305019304</v>
       </c>
       <c r="AE19" s="80">
-        <f t="shared" si="1"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>0.96525096525096521</v>
       </c>
       <c r="AF19" s="81">
-        <f t="shared" si="5"/>
-        <v>2.3873376623376625</v>
+        <f t="shared" si="12"/>
+        <v>5.3231177606177598</v>
       </c>
       <c r="AG19" s="89">
         <v>1.0661524855657301</v>
@@ -28198,7 +28190,7 @@
         <v>7.13021872255608</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="74">
         <v>13</v>
       </c>
@@ -28226,7 +28218,7 @@
         <v>1.1752800000000001</v>
       </c>
       <c r="J20" s="70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1.9588000000000001E-2</v>
       </c>
       <c r="K20" s="77">
@@ -28273,39 +28265,39 @@
       </c>
       <c r="X20" s="80">
         <f t="shared" si="4"/>
-        <v>0.60606060606060608</v>
+        <v>2.8112449799196786</v>
       </c>
       <c r="Y20" s="80">
-        <f t="shared" si="4"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="5"/>
+        <v>4.0160642570281126</v>
       </c>
       <c r="Z20" s="80">
-        <f t="shared" si="4"/>
-        <v>2.5974025974025974</v>
+        <f t="shared" si="6"/>
+        <v>12.048192771084338</v>
       </c>
       <c r="AA20" s="80">
-        <f t="shared" si="4"/>
-        <v>6.9264069264069263</v>
+        <f t="shared" si="7"/>
+        <v>32.128514056224901</v>
       </c>
       <c r="AB20" s="80">
-        <f t="shared" si="4"/>
-        <v>8.6580086580086579</v>
+        <f t="shared" si="8"/>
+        <v>40.160642570281126</v>
       </c>
       <c r="AC20" s="80">
-        <f t="shared" si="4"/>
-        <v>0.86580086580086579</v>
+        <f t="shared" si="9"/>
+        <v>4.0160642570281126</v>
       </c>
       <c r="AD20" s="80">
-        <f t="shared" si="4"/>
-        <v>0.60606060606060608</v>
+        <f t="shared" si="10"/>
+        <v>2.8112449799196786</v>
       </c>
       <c r="AE20" s="80">
-        <f t="shared" si="4"/>
-        <v>0.4329004329004329</v>
+        <f t="shared" si="11"/>
+        <v>2.0080321285140563</v>
       </c>
       <c r="AF20" s="81">
-        <f t="shared" si="5"/>
-        <v>0.49372294372294379</v>
+        <f t="shared" si="12"/>
+        <v>2.2901606425702812</v>
       </c>
       <c r="AG20" s="89">
         <v>1.0203046592484599</v>
@@ -28346,7 +28338,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D21" s="39"/>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
@@ -28359,7 +28351,7 @@
       <c r="M21" s="48"/>
       <c r="AF21" s="82"/>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D22" s="39"/>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
@@ -28372,7 +28364,7 @@
       <c r="M22" s="48"/>
       <c r="AF22" s="82"/>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D23" s="39"/>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
@@ -28385,7 +28377,7 @@
       <c r="M23" s="48"/>
       <c r="AF23" s="82"/>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D24" s="39"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
@@ -28397,7 +28389,7 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D25" s="39"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -28409,7 +28401,7 @@
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D26" s="39"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -28421,7 +28413,7 @@
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D27" s="39"/>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
@@ -28433,7 +28425,7 @@
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D28" s="39"/>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -28445,7 +28437,7 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D29" s="47"/>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -28457,7 +28449,7 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D30" s="39"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
@@ -28469,7 +28461,7 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D31" s="39"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
@@ -28481,7 +28473,7 @@
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="D32" s="39"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -28495,14 +28487,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="AF1:AF3"/>
     <mergeCell ref="V1:V3"/>
     <mergeCell ref="U1:U3"/>
@@ -28519,7 +28503,27 @@
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
+  <conditionalFormatting sqref="AF4:AF20">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -28528,122 +28532,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="40.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.44140625" style="1"/>
     <col min="34" max="34" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="128" t="s">
+      <c r="J1" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="126" t="s">
+      <c r="L1" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="128" t="s">
+      <c r="M1" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="130" t="s">
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130" t="s">
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="Z1" s="132" t="s">
+      <c r="Z1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="AA1" s="123" t="s">
+      <c r="AA1" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="125" t="s">
+      <c r="AB1" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="134" t="s">
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="131" t="s">
         <v>101</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="131"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="123"/>
+    <row r="2" spans="1:35" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="122"/>
       <c r="AB2" s="66" t="s">
         <v>25</v>
       </c>
@@ -28662,21 +28666,21 @@
       <c r="AG2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="134"/>
+      <c r="AH2" s="131"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="127"/>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="133"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="135"/>
       <c r="M3" s="49" t="s">
         <v>25</v>
       </c>
@@ -28713,9 +28717,9 @@
       <c r="X3" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="133"/>
-      <c r="AA3" s="123"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="122"/>
       <c r="AB3">
         <v>15</v>
       </c>
@@ -28734,9 +28738,9 @@
       <c r="AG3">
         <v>0.5</v>
       </c>
-      <c r="AH3" s="134"/>
+      <c r="AH3" s="131"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>72</v>
       </c>
@@ -28786,13 +28790,16 @@
       <c r="Z4" s="58">
         <v>10.71</v>
       </c>
-      <c r="AA4" s="139"/>
+      <c r="AA4" s="118">
+        <f t="shared" ref="AA4:AA15" si="0">Z4/60</f>
+        <v>0.17850000000000002</v>
+      </c>
       <c r="AH4" s="67">
         <f>(AB4*$AB$3+AC4*$AC$3+AD4*$AD$3+AE4*$AE$3+AF4*$AF$3+AG4*$AG$3)/100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>73</v>
       </c>
@@ -28803,7 +28810,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="116">
-        <f t="shared" ref="D5:D31" si="0">B5+C5</f>
+        <f t="shared" ref="D5:D31" si="1">B5+C5</f>
         <v>42916.416666666664</v>
       </c>
       <c r="E5" s="51">
@@ -28856,29 +28863,32 @@
       <c r="Z5" s="58">
         <v>16.864000000000001</v>
       </c>
-      <c r="AA5" s="139"/>
+      <c r="AA5" s="118">
+        <f t="shared" si="0"/>
+        <v>0.28106666666666669</v>
+      </c>
       <c r="AB5" s="65">
-        <f>(S5*100)/$L$5</f>
+        <f>(S5*100)/$L5</f>
         <v>10.869565217391305</v>
       </c>
       <c r="AC5" s="65">
-        <f>(T5*100)/$L$5</f>
+        <f t="shared" ref="AB5:AF20" si="2">(T5*100)/$L5</f>
         <v>5.7971014492753623</v>
       </c>
       <c r="AD5" s="65">
-        <f>(U5*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>7.2463768115942031</v>
       </c>
       <c r="AE5" s="65">
-        <f>(V5*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>36.956521739130437</v>
       </c>
       <c r="AF5" s="65">
-        <f>(W5*100)/$L$5</f>
+        <f>(W5*100)/$L5</f>
         <v>38.405797101449274</v>
       </c>
       <c r="AG5" s="65">
-        <f>(X5*100)/$L$5</f>
+        <f>(X5*100)/$L5</f>
         <v>0.72463768115942029</v>
       </c>
       <c r="AH5" s="68">
@@ -28889,7 +28899,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>74</v>
       </c>
@@ -28900,7 +28910,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42917.416666666664</v>
       </c>
       <c r="E6" s="51">
@@ -28938,40 +28948,43 @@
       <c r="Z6" s="58">
         <v>3.3346666666666667</v>
       </c>
-      <c r="AA6" s="139"/>
+      <c r="AA6" s="118">
+        <f t="shared" si="0"/>
+        <v>5.5577777777777775E-2</v>
+      </c>
       <c r="AB6" s="65">
-        <f>(S6*100)/$L$5</f>
+        <f>(S6*100)/$L6</f>
         <v>0</v>
       </c>
       <c r="AC6" s="65">
-        <f>(T6*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD6" s="65">
-        <f>(U6*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE6" s="65">
-        <f>(V6*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF6" s="65">
-        <f>(W6*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG6" s="65">
-        <f t="shared" ref="AG6:AG31" si="1">(X6*100)/$L$5</f>
+        <f t="shared" ref="AG6:AG31" si="3">(X6*100)/$L6</f>
         <v>0</v>
       </c>
       <c r="AH6" s="67">
-        <f t="shared" ref="AH6:AH31" si="2">(AB6*$AB$3+AC6*$AC$3+AD6*$AD$3+AE6*$AE$3+AF6*$AF$3+AG6*$AG$3)/100</f>
+        <f t="shared" ref="AH6:AH29" si="4">(AB6*$AB$3+AC6*$AC$3+AD6*$AD$3+AE6*$AE$3+AF6*$AF$3+AG6*$AG$3)/100</f>
         <v>0</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>75</v>
       </c>
@@ -28982,7 +28995,7 @@
         <v>0.75</v>
       </c>
       <c r="D7" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42922.75</v>
       </c>
       <c r="E7" s="51">
@@ -29036,40 +29049,43 @@
         <f>(L7/E7)*(I7/0.25)/1000</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="AA7" s="139"/>
+      <c r="AA7" s="118">
+        <f t="shared" si="0"/>
+        <v>0.72222222222222221</v>
+      </c>
       <c r="AB7" s="65">
-        <f>(S7*100)/$L$5</f>
+        <f>(S7*100)/$L7</f>
         <v>0</v>
       </c>
       <c r="AC7" s="65">
-        <f>(T7*100)/$L$5</f>
-        <v>0.36231884057971014</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="AD7" s="65">
-        <f>(U7*100)/$L$5</f>
-        <v>2.8985507246376812</v>
+        <f t="shared" si="2"/>
+        <v>1.6</v>
       </c>
       <c r="AE7" s="65">
-        <f>(V7*100)/$L$5</f>
-        <v>60.144927536231883</v>
+        <f t="shared" si="2"/>
+        <v>33.200000000000003</v>
       </c>
       <c r="AF7" s="65">
-        <f>(W7*100)/$L$5</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>27.6</v>
       </c>
       <c r="AG7" s="65">
-        <f t="shared" si="1"/>
-        <v>1.0869565217391304</v>
+        <f>(X7*100)/$L7</f>
+        <v>0.6</v>
       </c>
       <c r="AH7" s="68">
-        <f t="shared" si="2"/>
-        <v>1.2608695652173914</v>
+        <f t="shared" si="4"/>
+        <v>0.69600000000000006</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>76</v>
       </c>
@@ -29080,7 +29096,7 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42927.375</v>
       </c>
       <c r="E8" s="51">
@@ -29117,43 +29133,46 @@
       <c r="X8" s="56"/>
       <c r="Y8" s="57"/>
       <c r="Z8" s="58">
-        <f t="shared" ref="Z8:Z31" si="3">(L8/E8)*(I8/0.25)/1000</f>
+        <f t="shared" ref="Z8:Z31" si="5">(L8/E8)*(I8/0.25)/1000</f>
         <v>1.0660000000000003</v>
       </c>
-      <c r="AA8" s="139"/>
+      <c r="AA8" s="118">
+        <f t="shared" si="0"/>
+        <v>1.776666666666667E-2</v>
+      </c>
       <c r="AB8" s="65">
-        <f>(S8*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC8" s="65">
-        <f>(T8*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD8" s="65">
-        <f>(U8*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE8" s="65">
-        <f>(V8*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF8" s="65">
-        <f>(W8*100)/$L$5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8" s="65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH8" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>77</v>
       </c>
@@ -29164,7 +29183,7 @@
         <v>0.75</v>
       </c>
       <c r="D9" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42928.75</v>
       </c>
       <c r="E9" s="51">
@@ -29211,43 +29230,46 @@
       </c>
       <c r="Y9" s="57"/>
       <c r="Z9" s="58">
+        <f t="shared" si="5"/>
+        <v>4.3680000000000003</v>
+      </c>
+      <c r="AA9" s="118">
+        <f t="shared" si="0"/>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="AB9" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="65">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="AD9" s="65">
+        <f t="shared" si="2"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="AE9" s="65">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AF9" s="65">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="AG9" s="65">
         <f t="shared" si="3"/>
-        <v>4.3680000000000003</v>
-      </c>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="65">
-        <f>(S9*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="65">
-        <f>(T9*100)/$L$5</f>
-        <v>7.2463768115942032E-2</v>
-      </c>
-      <c r="AD9" s="65">
-        <f>(U9*100)/$L$5</f>
-        <v>0.36231884057971014</v>
-      </c>
-      <c r="AE9" s="65">
-        <f>(V9*100)/$L$5</f>
-        <v>9.420289855072463</v>
-      </c>
-      <c r="AF9" s="65">
-        <f>(W9*100)/$L$5</f>
-        <v>9.420289855072463</v>
-      </c>
-      <c r="AG9" s="65">
-        <f t="shared" si="1"/>
-        <v>0.14492753623188406</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="AH9" s="68">
-        <f t="shared" si="2"/>
-        <v>0.20724637681159419</v>
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>78</v>
       </c>
@@ -29258,7 +29280,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D10" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42931.583333333336</v>
       </c>
       <c r="E10" s="51">
@@ -29307,43 +29329,46 @@
       </c>
       <c r="Y10" s="57"/>
       <c r="Z10" s="58">
+        <f t="shared" si="5"/>
+        <v>7.1680000000000001</v>
+      </c>
+      <c r="AA10" s="118">
+        <f t="shared" si="0"/>
+        <v>0.11946666666666667</v>
+      </c>
+      <c r="AB10" s="65">
+        <f t="shared" si="2"/>
+        <v>0.11904761904761904</v>
+      </c>
+      <c r="AC10" s="65">
+        <f t="shared" si="2"/>
+        <v>0.59523809523809523</v>
+      </c>
+      <c r="AD10" s="65">
+        <f t="shared" si="2"/>
+        <v>2.9761904761904763</v>
+      </c>
+      <c r="AE10" s="65">
+        <f t="shared" si="2"/>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="AF10" s="65">
+        <f t="shared" si="2"/>
+        <v>46.428571428571431</v>
+      </c>
+      <c r="AG10" s="65">
         <f t="shared" si="3"/>
-        <v>7.1680000000000001</v>
-      </c>
-      <c r="AA10" s="139"/>
-      <c r="AB10" s="65">
-        <f>(S10*100)/$L$5</f>
-        <v>7.2463768115942032E-2</v>
-      </c>
-      <c r="AC10" s="65">
-        <f>(T10*100)/$L$5</f>
-        <v>0.36231884057971014</v>
-      </c>
-      <c r="AD10" s="65">
-        <f>(U10*100)/$L$5</f>
-        <v>1.8115942028985508</v>
-      </c>
-      <c r="AE10" s="65">
-        <f>(V10*100)/$L$5</f>
-        <v>28.260869565217391</v>
-      </c>
-      <c r="AF10" s="65">
-        <f>(W10*100)/$L$5</f>
-        <v>28.260869565217391</v>
-      </c>
-      <c r="AG10" s="65">
-        <f t="shared" si="1"/>
-        <v>0.36231884057971014</v>
+        <v>0.59523809523809523</v>
       </c>
       <c r="AH10" s="68">
-        <f t="shared" si="2"/>
-        <v>0.66847826086956519</v>
+        <f t="shared" si="4"/>
+        <v>1.0982142857142858</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>79</v>
       </c>
@@ -29354,7 +29379,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D11" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42931.791666666664</v>
       </c>
       <c r="E11" s="51">
@@ -29403,43 +29428,46 @@
       </c>
       <c r="Y11" s="57"/>
       <c r="Z11" s="58">
+        <f t="shared" si="5"/>
+        <v>21.28</v>
+      </c>
+      <c r="AA11" s="118">
+        <f t="shared" si="0"/>
+        <v>0.35466666666666669</v>
+      </c>
+      <c r="AB11" s="65">
+        <f t="shared" si="2"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="AC11" s="65">
+        <f t="shared" si="2"/>
+        <v>2.192982456140351</v>
+      </c>
+      <c r="AD11" s="65">
+        <f t="shared" si="2"/>
+        <v>6.1403508771929829</v>
+      </c>
+      <c r="AE11" s="65">
+        <f t="shared" si="2"/>
+        <v>43.859649122807021</v>
+      </c>
+      <c r="AF11" s="65">
+        <f t="shared" si="2"/>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="AG11" s="65">
         <f t="shared" si="3"/>
-        <v>21.28</v>
-      </c>
-      <c r="AA11" s="139"/>
-      <c r="AB11" s="65">
-        <f>(S11*100)/$L$5</f>
-        <v>7.2463768115942032E-2</v>
-      </c>
-      <c r="AC11" s="65">
-        <f>(T11*100)/$L$5</f>
-        <v>1.8115942028985508</v>
-      </c>
-      <c r="AD11" s="65">
-        <f>(U11*100)/$L$5</f>
-        <v>5.0724637681159424</v>
-      </c>
-      <c r="AE11" s="65">
-        <f>(V11*100)/$L$5</f>
-        <v>36.231884057971016</v>
-      </c>
-      <c r="AF11" s="65">
-        <f>(W11*100)/$L$5</f>
-        <v>39.130434782608695</v>
-      </c>
-      <c r="AG11" s="65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH11" s="68">
-        <f t="shared" si="2"/>
-        <v>1.0706521739130435</v>
+        <f t="shared" si="4"/>
+        <v>1.2960526315789473</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>80</v>
       </c>
@@ -29450,7 +29478,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D12" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42932.416666666664</v>
       </c>
       <c r="E12" s="51">
@@ -29471,7 +29499,8 @@
       <c r="J12" s="51"/>
       <c r="K12" s="54"/>
       <c r="L12" s="55">
-        <v>4130</v>
+        <f>SUM(S12:X12)</f>
+        <v>5126</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -29500,43 +29529,46 @@
       </c>
       <c r="Y12" s="57"/>
       <c r="Z12" s="58">
+        <f t="shared" si="5"/>
+        <v>44.425333333333334</v>
+      </c>
+      <c r="AA12" s="118">
+        <f t="shared" si="0"/>
+        <v>0.7404222222222222</v>
+      </c>
+      <c r="AB12" s="65">
+        <f>(S12*100)/$L12</f>
+        <v>93.640265314085056</v>
+      </c>
+      <c r="AC12" s="65">
+        <f t="shared" si="2"/>
+        <v>0.19508388607101054</v>
+      </c>
+      <c r="AD12" s="65">
+        <f t="shared" si="2"/>
+        <v>0.2926258291065158</v>
+      </c>
+      <c r="AE12" s="65">
+        <f t="shared" si="2"/>
+        <v>2.926258291065158</v>
+      </c>
+      <c r="AF12" s="65">
+        <f t="shared" si="2"/>
+        <v>2.926258291065158</v>
+      </c>
+      <c r="AG12" s="65">
         <f t="shared" si="3"/>
-        <v>35.793333333333337</v>
-      </c>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="65">
-        <f>(S12*100)/$L$5</f>
-        <v>347.82608695652175</v>
-      </c>
-      <c r="AC12" s="65">
-        <f>(T12*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD12" s="65">
-        <f>(U12*100)/$L$5</f>
-        <v>1.0869565217391304</v>
-      </c>
-      <c r="AE12" s="65">
-        <f>(V12*100)/$L$5</f>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="AF12" s="65">
-        <f>(W12*100)/$L$5</f>
-        <v>10.869565217391305</v>
-      </c>
-      <c r="AG12" s="65">
-        <f t="shared" si="1"/>
-        <v>7.2463768115942032E-2</v>
+        <v>1.9508388607101055E-2</v>
       </c>
       <c r="AH12" s="68">
-        <f t="shared" si="2"/>
-        <v>52.484057971014494</v>
+        <f t="shared" si="4"/>
+        <v>14.129535700351148</v>
       </c>
       <c r="AI12" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>81</v>
       </c>
@@ -29547,7 +29579,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D13" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42933.458333333336</v>
       </c>
       <c r="E13" s="51">
@@ -29596,43 +29628,46 @@
       </c>
       <c r="Y13" s="57"/>
       <c r="Z13" s="58">
+        <f t="shared" si="5"/>
+        <v>3.72</v>
+      </c>
+      <c r="AA13" s="118">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000006E-2</v>
+      </c>
+      <c r="AB13" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="65">
+        <f t="shared" si="2"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="AD13" s="65">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="AE13" s="65">
+        <f t="shared" si="2"/>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="AF13" s="65">
+        <f t="shared" si="2"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="AG13" s="65">
         <f t="shared" si="3"/>
-        <v>3.72</v>
-      </c>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="65">
-        <f>(S13*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="65">
-        <f>(T13*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD13" s="65">
-        <f>(U13*100)/$L$5</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="AE13" s="65">
-        <f>(V13*100)/$L$5</f>
-        <v>15.942028985507246</v>
-      </c>
-      <c r="AF13" s="65">
-        <f>(W13*100)/$L$5</f>
-        <v>15.217391304347826</v>
-      </c>
-      <c r="AG13" s="65">
-        <f t="shared" si="1"/>
-        <v>0.14492753623188406</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="AH13" s="68">
-        <f t="shared" si="2"/>
-        <v>0.44456521739130439</v>
+        <f t="shared" si="4"/>
+        <v>1.3633333333333335</v>
       </c>
       <c r="AI13" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>82</v>
       </c>
@@ -29643,7 +29678,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="D14" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42935.291666666664</v>
       </c>
       <c r="E14" s="51">
@@ -29676,43 +29711,46 @@
       <c r="X14" s="56"/>
       <c r="Y14" s="57"/>
       <c r="Z14" s="58">
+        <f t="shared" si="5"/>
+        <v>1.984</v>
+      </c>
+      <c r="AA14" s="118">
+        <f t="shared" si="0"/>
+        <v>3.3066666666666668E-2</v>
+      </c>
+      <c r="AB14" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="65">
         <f t="shared" si="3"/>
-        <v>1.984</v>
-      </c>
-      <c r="AA14" s="139"/>
-      <c r="AB14" s="65">
-        <f>(S14*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="65">
-        <f>(T14*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="65">
-        <f>(U14*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="65">
-        <f>(V14*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="65">
-        <f>(W14*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH14" s="67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI14" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>83</v>
       </c>
@@ -29723,7 +29761,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D15" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42935.708333333336</v>
       </c>
       <c r="E15" s="51">
@@ -29770,43 +29808,46 @@
       </c>
       <c r="Y15" s="57"/>
       <c r="Z15" s="58">
+        <f t="shared" si="5"/>
+        <v>24.821333333333332</v>
+      </c>
+      <c r="AA15" s="118">
+        <f t="shared" si="0"/>
+        <v>0.41368888888888888</v>
+      </c>
+      <c r="AB15" s="65">
+        <f t="shared" si="2"/>
+        <v>1.3966480446927374</v>
+      </c>
+      <c r="AC15" s="65">
+        <f t="shared" si="2"/>
+        <v>1.3966480446927374</v>
+      </c>
+      <c r="AD15" s="65">
+        <f t="shared" si="2"/>
+        <v>8.3798882681564244</v>
+      </c>
+      <c r="AE15" s="65">
+        <f t="shared" si="2"/>
+        <v>55.167597765363126</v>
+      </c>
+      <c r="AF15" s="65">
+        <f t="shared" si="2"/>
+        <v>33.519553072625698</v>
+      </c>
+      <c r="AG15" s="65">
         <f t="shared" si="3"/>
-        <v>24.821333333333332</v>
-      </c>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="65">
-        <f>(S15*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AC15" s="65">
-        <f>(T15*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AD15" s="65">
-        <f>(U15*100)/$L$5</f>
-        <v>8.695652173913043</v>
-      </c>
-      <c r="AE15" s="65">
-        <f>(V15*100)/$L$5</f>
-        <v>57.246376811594203</v>
-      </c>
-      <c r="AF15" s="65">
-        <f>(W15*100)/$L$5</f>
-        <v>34.782608695652172</v>
-      </c>
-      <c r="AG15" s="65">
-        <f t="shared" si="1"/>
-        <v>0.14492753623188406</v>
+        <v>0.13966480446927373</v>
       </c>
       <c r="AH15" s="68">
-        <f t="shared" si="2"/>
-        <v>1.6076086956521738</v>
+        <f t="shared" si="4"/>
+        <v>1.5492318435754189</v>
       </c>
       <c r="AI15" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>84</v>
       </c>
@@ -29817,7 +29858,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42942.666666666664</v>
       </c>
       <c r="E16" s="51">
@@ -29866,27 +29907,27 @@
         <v>0.01</v>
       </c>
       <c r="S16" s="60">
-        <f t="shared" ref="S16:X27" si="4">M16*1000</f>
+        <f t="shared" ref="S16:X27" si="6">M16*1000</f>
         <v>10</v>
       </c>
       <c r="T16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="U16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="V16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="W16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="X16" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="Y16" s="61">
@@ -29897,43 +29938,43 @@
         <f>(L16/E16)*(I16/0.25)/1000</f>
         <v>6.9226666666666672</v>
       </c>
-      <c r="AA16" s="140">
+      <c r="AA16" s="118">
         <f>Z16/60</f>
         <v>0.11537777777777779</v>
       </c>
       <c r="AB16" s="65">
-        <f>(S16*100)/$L$5</f>
-        <v>0.72463768115942029</v>
+        <f t="shared" si="2"/>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AC16" s="65">
-        <f>(T16*100)/$L$5</f>
-        <v>0.72463768115942029</v>
+        <f t="shared" si="2"/>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AD16" s="65">
-        <f>(U16*100)/$L$5</f>
-        <v>0.72463768115942029</v>
+        <f t="shared" si="2"/>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AE16" s="65">
-        <f>(V16*100)/$L$5</f>
-        <v>13.768115942028986</v>
+        <f t="shared" si="2"/>
+        <v>32.203389830508478</v>
       </c>
       <c r="AF16" s="65">
-        <f>(W16*100)/$L$5</f>
-        <v>28.260869565217391</v>
+        <f t="shared" si="2"/>
+        <v>66.101694915254242</v>
       </c>
       <c r="AG16" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
+        <f t="shared" si="3"/>
+        <v>1.6949152542372881</v>
       </c>
       <c r="AH16" s="68">
-        <f t="shared" si="2"/>
-        <v>0.57608695652173914</v>
+        <f t="shared" si="4"/>
+        <v>1.3474576271186443</v>
       </c>
       <c r="AI16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>86</v>
       </c>
@@ -29944,7 +29985,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42943.791666666664</v>
       </c>
       <c r="E17" s="51">
@@ -29971,7 +30012,7 @@
         <v>0.49</v>
       </c>
       <c r="L17" s="55">
-        <f t="shared" ref="L17:L31" si="5">K17*1000</f>
+        <f t="shared" ref="L17:L31" si="7">K17*1000</f>
         <v>490</v>
       </c>
       <c r="M17" s="51">
@@ -29993,74 +30034,74 @@
         <v>0.01</v>
       </c>
       <c r="S17" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U17" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="V17" s="60">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="W17" s="60">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="X17" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y17" s="61">
+        <f t="shared" ref="Y17:Y30" si="8">(J17/25)*(L17/E17)</f>
+        <v>2809.3333333333335</v>
+      </c>
+      <c r="Z17" s="58">
+        <f t="shared" si="5"/>
+        <v>2.8093333333333335</v>
+      </c>
+      <c r="AA17" s="118">
+        <f t="shared" ref="AA17:AA31" si="9">Z17/60</f>
+        <v>4.6822222222222223E-2</v>
+      </c>
+      <c r="AB17" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="65">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="AD17" s="65">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="AE17" s="65">
+        <f>(V17*100)/$L17</f>
+        <v>24.489795918367346</v>
+      </c>
+      <c r="AF17" s="65">
+        <f t="shared" si="2"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="AG17" s="65">
+        <f>(X17*100)/$L17</f>
+        <v>2.0408163265306123</v>
+      </c>
+      <c r="AH17" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U17" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V17" s="60">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="W17" s="60">
-        <f t="shared" si="4"/>
-        <v>350</v>
-      </c>
-      <c r="X17" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y17" s="61">
-        <f t="shared" ref="Y17:Y31" si="6">(J17/25)*(L17/E17)</f>
-        <v>2809.3333333333335</v>
-      </c>
-      <c r="Z17" s="58">
-        <f t="shared" si="3"/>
-        <v>2.8093333333333335</v>
-      </c>
-      <c r="AA17" s="140">
-        <f t="shared" ref="AA17:AA31" si="7">Z17/60</f>
-        <v>4.6822222222222223E-2</v>
-      </c>
-      <c r="AB17" s="65">
-        <f>(S17*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="65">
-        <f>(T17*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD17" s="65">
-        <f>(U17*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AE17" s="65">
-        <f>(V17*100)/$L$5</f>
-        <v>8.695652173913043</v>
-      </c>
-      <c r="AF17" s="65">
-        <f>(W17*100)/$L$5</f>
-        <v>25.362318840579711</v>
-      </c>
-      <c r="AG17" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH17" s="68">
-        <f t="shared" si="2"/>
-        <v>0.38224637681159424</v>
+        <v>1.0765306122448979</v>
       </c>
       <c r="AI17" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>87</v>
       </c>
@@ -30071,7 +30112,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D18" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42945.791666666664</v>
       </c>
       <c r="E18" s="51">
@@ -30091,14 +30132,14 @@
         <v>3.7</v>
       </c>
       <c r="J18" s="51">
-        <f t="shared" ref="J18:J31" si="8">I18*100</f>
+        <f t="shared" ref="J18:J31" si="10">I18*100</f>
         <v>370</v>
       </c>
       <c r="K18" s="51">
         <v>0.47</v>
       </c>
       <c r="L18" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="M18" s="51">
@@ -30120,74 +30161,74 @@
         <v>0.04</v>
       </c>
       <c r="S18" s="60">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="T18" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="V18" s="60">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="W18" s="60">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="X18" s="60">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Y18" s="61">
+        <f t="shared" si="8"/>
+        <v>4637.333333333333</v>
+      </c>
+      <c r="Z18" s="58">
+        <f t="shared" si="5"/>
+        <v>4.6373333333333333</v>
+      </c>
+      <c r="AA18" s="118">
+        <f t="shared" si="9"/>
+        <v>7.7288888888888893E-2</v>
+      </c>
+      <c r="AB18" s="65">
+        <f t="shared" si="2"/>
+        <v>4.2553191489361701</v>
+      </c>
+      <c r="AC18" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="65">
+        <f t="shared" si="2"/>
+        <v>2.1276595744680851</v>
+      </c>
+      <c r="AE18" s="65">
+        <f t="shared" si="2"/>
+        <v>5.3191489361702127</v>
+      </c>
+      <c r="AF18" s="65">
+        <f t="shared" si="2"/>
+        <v>80.851063829787236</v>
+      </c>
+      <c r="AG18" s="65">
+        <f t="shared" si="3"/>
+        <v>8.5106382978723403</v>
+      </c>
+      <c r="AH18" s="68">
         <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="T18" s="60">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V18" s="60">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="W18" s="60">
-        <f t="shared" si="4"/>
-        <v>380</v>
-      </c>
-      <c r="X18" s="60">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="Y18" s="61">
-        <f t="shared" si="6"/>
-        <v>4637.333333333333</v>
-      </c>
-      <c r="Z18" s="58">
-        <f t="shared" si="3"/>
-        <v>4.6373333333333333</v>
-      </c>
-      <c r="AA18" s="140">
-        <f t="shared" si="7"/>
-        <v>7.7288888888888893E-2</v>
-      </c>
-      <c r="AB18" s="65">
-        <f>(S18*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AC18" s="65">
-        <f>(T18*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="65">
-        <f>(U18*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AE18" s="65">
-        <f>(V18*100)/$L$5</f>
-        <v>1.8115942028985508</v>
-      </c>
-      <c r="AF18" s="65">
-        <f>(W18*100)/$L$5</f>
-        <v>27.536231884057973</v>
-      </c>
-      <c r="AG18" s="65">
-        <f t="shared" si="1"/>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="AH18" s="68">
-        <f t="shared" si="2"/>
-        <v>0.48641304347826092</v>
+        <v>1.4281914893617023</v>
       </c>
       <c r="AI18" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>88</v>
       </c>
@@ -30198,7 +30239,7 @@
         <v>0.75</v>
       </c>
       <c r="D19" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42946.75</v>
       </c>
       <c r="E19" s="51">
@@ -30218,14 +30259,14 @@
         <v>3.9</v>
       </c>
       <c r="J19" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>390</v>
       </c>
       <c r="K19" s="51">
         <v>0.57999999999999996</v>
       </c>
       <c r="L19" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>580</v>
       </c>
       <c r="M19" s="51">
@@ -30247,74 +30288,74 @@
         <v>0.01</v>
       </c>
       <c r="S19" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U19" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="V19" s="60">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="W19" s="60">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+      <c r="X19" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y19" s="61">
+        <f t="shared" si="8"/>
+        <v>6032</v>
+      </c>
+      <c r="Z19" s="58">
+        <f t="shared" si="5"/>
+        <v>6.032</v>
+      </c>
+      <c r="AA19" s="118">
+        <f t="shared" si="9"/>
+        <v>0.10053333333333334</v>
+      </c>
+      <c r="AB19" s="65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="65">
+        <f t="shared" si="2"/>
+        <v>1.7241379310344827</v>
+      </c>
+      <c r="AD19" s="65">
+        <f t="shared" si="2"/>
+        <v>1.7241379310344827</v>
+      </c>
+      <c r="AE19" s="65">
+        <f t="shared" si="2"/>
+        <v>17.241379310344829</v>
+      </c>
+      <c r="AF19" s="65">
+        <f t="shared" si="2"/>
+        <v>82.758620689655174</v>
+      </c>
+      <c r="AG19" s="65">
+        <f t="shared" si="3"/>
+        <v>1.7241379310344827</v>
+      </c>
+      <c r="AH19" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U19" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="V19" s="60">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="W19" s="60">
-        <f t="shared" si="4"/>
-        <v>480</v>
-      </c>
-      <c r="X19" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y19" s="61">
-        <f t="shared" si="6"/>
-        <v>6032</v>
-      </c>
-      <c r="Z19" s="58">
-        <f t="shared" si="3"/>
-        <v>6.032</v>
-      </c>
-      <c r="AA19" s="140">
-        <f t="shared" si="7"/>
-        <v>0.10053333333333334</v>
-      </c>
-      <c r="AB19" s="65">
-        <f>(S19*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="65">
-        <f>(T19*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD19" s="65">
-        <f>(U19*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AE19" s="65">
-        <f>(V19*100)/$L$5</f>
-        <v>7.2463768115942031</v>
-      </c>
-      <c r="AF19" s="65">
-        <f>(W19*100)/$L$5</f>
-        <v>34.782608695652172</v>
-      </c>
-      <c r="AG19" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH19" s="68">
-        <f t="shared" si="2"/>
-        <v>0.43478260869565211</v>
+        <v>1.0344827586206897</v>
       </c>
       <c r="AI19" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>89</v>
       </c>
@@ -30325,7 +30366,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D20" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42947.708333333336</v>
       </c>
       <c r="E20" s="51">
@@ -30343,14 +30384,14 @@
         <v>9.6</v>
       </c>
       <c r="J20" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>960</v>
       </c>
       <c r="K20" s="51">
         <v>4.53</v>
       </c>
       <c r="L20" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4530</v>
       </c>
       <c r="M20" s="51">
@@ -30372,74 +30413,74 @@
         <v>0.02</v>
       </c>
       <c r="S20" s="60">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="T20" s="60">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="U20" s="60">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="V20" s="60">
+        <f t="shared" si="6"/>
+        <v>2340</v>
+      </c>
+      <c r="W20" s="60">
+        <f t="shared" si="6"/>
+        <v>1320</v>
+      </c>
+      <c r="X20" s="60">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Y20" s="61">
+        <f t="shared" si="8"/>
+        <v>115968</v>
+      </c>
+      <c r="Z20" s="58">
+        <f t="shared" si="5"/>
+        <v>115.968</v>
+      </c>
+      <c r="AA20" s="118">
+        <f t="shared" si="9"/>
+        <v>1.9328000000000001</v>
+      </c>
+      <c r="AB20" s="65">
+        <f t="shared" si="2"/>
+        <v>3.2229580573951435</v>
+      </c>
+      <c r="AC20" s="65">
+        <f t="shared" si="2"/>
+        <v>5.9602649006622519</v>
+      </c>
+      <c r="AD20" s="65">
+        <f t="shared" si="2"/>
+        <v>9.6026490066225172</v>
+      </c>
+      <c r="AE20" s="65">
+        <f t="shared" si="2"/>
+        <v>51.65562913907285</v>
+      </c>
+      <c r="AF20" s="65">
+        <f t="shared" si="2"/>
+        <v>29.139072847682119</v>
+      </c>
+      <c r="AG20" s="65">
+        <f>(X20*100)/$L20</f>
+        <v>0.44150110375275936</v>
+      </c>
+      <c r="AH20" s="68">
         <f t="shared" si="4"/>
-        <v>146</v>
-      </c>
-      <c r="T20" s="60">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="U20" s="60">
-        <f t="shared" si="4"/>
-        <v>435</v>
-      </c>
-      <c r="V20" s="60">
-        <f t="shared" si="4"/>
-        <v>2340</v>
-      </c>
-      <c r="W20" s="60">
-        <f t="shared" si="4"/>
-        <v>1320</v>
-      </c>
-      <c r="X20" s="60">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="Y20" s="61">
-        <f t="shared" si="6"/>
-        <v>115968</v>
-      </c>
-      <c r="Z20" s="58">
-        <f t="shared" si="3"/>
-        <v>115.968</v>
-      </c>
-      <c r="AA20" s="140">
-        <f t="shared" si="7"/>
-        <v>1.9328000000000001</v>
-      </c>
-      <c r="AB20" s="65">
-        <f>(S20*100)/$L$5</f>
-        <v>10.579710144927537</v>
-      </c>
-      <c r="AC20" s="65">
-        <f>(T20*100)/$L$5</f>
-        <v>19.565217391304348</v>
-      </c>
-      <c r="AD20" s="65">
-        <f>(U20*100)/$L$5</f>
-        <v>31.521739130434781</v>
-      </c>
-      <c r="AE20" s="65">
-        <f>(V20*100)/$L$5</f>
-        <v>169.56521739130434</v>
-      </c>
-      <c r="AF20" s="65">
-        <f>(W20*100)/$L$5</f>
-        <v>95.652173913043484</v>
-      </c>
-      <c r="AG20" s="65">
-        <f t="shared" si="1"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AH20" s="68">
-        <f t="shared" si="2"/>
-        <v>7.0018115942028976</v>
+        <v>2.1330022075055188</v>
       </c>
       <c r="AI20" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>90</v>
       </c>
@@ -30450,7 +30491,7 @@
         <v>0.75</v>
       </c>
       <c r="D21" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42949.75</v>
       </c>
       <c r="E21" s="51">
@@ -30468,14 +30509,14 @@
         <v>6.8</v>
       </c>
       <c r="J21" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
       <c r="K21" s="51">
         <v>1.5</v>
       </c>
       <c r="L21" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="M21" s="51">
@@ -30497,74 +30538,74 @@
         <v>0.01</v>
       </c>
       <c r="S21" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U21" s="60">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="V21" s="60">
+        <f t="shared" si="6"/>
+        <v>590</v>
+      </c>
+      <c r="W21" s="60">
+        <f t="shared" si="6"/>
+        <v>840</v>
+      </c>
+      <c r="X21" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y21" s="61">
+        <f t="shared" si="8"/>
+        <v>27200</v>
+      </c>
+      <c r="Z21" s="58">
+        <f t="shared" si="5"/>
+        <v>27.2</v>
+      </c>
+      <c r="AA21" s="118">
+        <f t="shared" si="9"/>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="AB21" s="65">
+        <f t="shared" ref="AB21:AB31" si="11">(S21*100)/$L21</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="65">
+        <f t="shared" ref="AC21:AC31" si="12">(T21*100)/$L21</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AD21" s="65">
+        <f t="shared" ref="AD21:AD31" si="13">(U21*100)/$L21</f>
+        <v>2</v>
+      </c>
+      <c r="AE21" s="65">
+        <f t="shared" ref="AE21:AE31" si="14">(V21*100)/$L21</f>
+        <v>39.333333333333336</v>
+      </c>
+      <c r="AF21" s="65">
+        <f t="shared" ref="AF21:AF31" si="15">(W21*100)/$L21</f>
+        <v>56</v>
+      </c>
+      <c r="AG21" s="65">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH21" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U21" s="60">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="V21" s="60">
-        <f t="shared" si="4"/>
-        <v>590</v>
-      </c>
-      <c r="W21" s="60">
-        <f t="shared" si="4"/>
-        <v>840</v>
-      </c>
-      <c r="X21" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y21" s="61">
-        <f t="shared" si="6"/>
-        <v>27200</v>
-      </c>
-      <c r="Z21" s="58">
-        <f t="shared" si="3"/>
-        <v>27.2</v>
-      </c>
-      <c r="AA21" s="140">
-        <f t="shared" si="7"/>
-        <v>0.45333333333333331</v>
-      </c>
-      <c r="AB21" s="65">
-        <f>(S21*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="65">
-        <f>(T21*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD21" s="65">
-        <f>(U21*100)/$L$5</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="AE21" s="65">
-        <f>(V21*100)/$L$5</f>
-        <v>42.753623188405797</v>
-      </c>
-      <c r="AF21" s="65">
-        <f>(W21*100)/$L$5</f>
-        <v>60.869565217391305</v>
-      </c>
-      <c r="AG21" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH21" s="68">
-        <f t="shared" si="2"/>
-        <v>1.1249999999999998</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="AI21" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>91</v>
       </c>
@@ -30575,7 +30616,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D22" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42953.791666666664</v>
       </c>
       <c r="E22" s="51">
@@ -30593,14 +30634,14 @@
         <v>6.5</v>
       </c>
       <c r="J22" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
       <c r="K22" s="51">
         <v>0.77</v>
       </c>
       <c r="L22" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>770</v>
       </c>
       <c r="M22" s="51">
@@ -30622,19 +30663,19 @@
         <v>0.01</v>
       </c>
       <c r="S22" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T22" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="U22" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="V22" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="W22" s="60">
@@ -30642,54 +30683,54 @@
         <v>380</v>
       </c>
       <c r="X22" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y22" s="61">
+        <f t="shared" si="8"/>
+        <v>13346.666666666668</v>
+      </c>
+      <c r="Z22" s="58">
+        <f t="shared" si="5"/>
+        <v>13.346666666666668</v>
+      </c>
+      <c r="AA22" s="118">
+        <f t="shared" si="9"/>
+        <v>0.22244444444444447</v>
+      </c>
+      <c r="AB22" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="65">
+        <f t="shared" si="12"/>
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="AD22" s="65">
+        <f t="shared" si="13"/>
+        <v>3.8961038961038961</v>
+      </c>
+      <c r="AE22" s="65">
+        <f t="shared" si="14"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="AF22" s="65">
+        <f t="shared" si="15"/>
+        <v>49.350649350649348</v>
+      </c>
+      <c r="AG22" s="65">
+        <f t="shared" si="3"/>
+        <v>1.2987012987012987</v>
+      </c>
+      <c r="AH22" s="68">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y22" s="61">
-        <f t="shared" si="6"/>
-        <v>13346.666666666668</v>
-      </c>
-      <c r="Z22" s="58">
-        <f t="shared" si="3"/>
-        <v>13.346666666666668</v>
-      </c>
-      <c r="AA22" s="140">
-        <f t="shared" si="7"/>
-        <v>0.22244444444444447</v>
-      </c>
-      <c r="AB22" s="65">
-        <f>(S22*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="65">
-        <f>(T22*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD22" s="65">
-        <f>(U22*100)/$L$5</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="AE22" s="65">
-        <f>(V22*100)/$L$5</f>
-        <v>23.913043478260871</v>
-      </c>
-      <c r="AF22" s="65">
-        <f>(W22*100)/$L$5</f>
-        <v>27.536231884057973</v>
-      </c>
-      <c r="AG22" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH22" s="68">
-        <f t="shared" si="2"/>
-        <v>0.63949275362318847</v>
+        <v>1.1461038961038961</v>
       </c>
       <c r="AI22" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>92</v>
       </c>
@@ -30700,7 +30741,7 @@
         <v>0.75</v>
       </c>
       <c r="D23" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42954.75</v>
       </c>
       <c r="E23" s="51">
@@ -30718,14 +30759,14 @@
         <v>6.5</v>
       </c>
       <c r="J23" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
       <c r="K23" s="51">
         <v>1.17</v>
       </c>
       <c r="L23" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1170</v>
       </c>
       <c r="M23" s="51">
@@ -30747,74 +30788,74 @@
         <v>0.01</v>
       </c>
       <c r="S23" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="T23" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U23" s="60">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="V23" s="60">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+      <c r="W23" s="60">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+      <c r="X23" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y23" s="61">
+        <f t="shared" si="8"/>
+        <v>20280</v>
+      </c>
+      <c r="Z23" s="58">
+        <f t="shared" si="5"/>
+        <v>20.28</v>
+      </c>
+      <c r="AA23" s="118">
+        <f t="shared" si="9"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AB23" s="65">
+        <f t="shared" si="11"/>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="AC23" s="65">
+        <f t="shared" si="12"/>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="AD23" s="65">
+        <f t="shared" si="13"/>
+        <v>5.1282051282051286</v>
+      </c>
+      <c r="AE23" s="65">
+        <f t="shared" si="14"/>
+        <v>40.17094017094017</v>
+      </c>
+      <c r="AF23" s="65">
+        <f t="shared" si="15"/>
+        <v>54.700854700854698</v>
+      </c>
+      <c r="AG23" s="65">
+        <f t="shared" si="3"/>
+        <v>0.85470085470085466</v>
+      </c>
+      <c r="AH23" s="68">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="T23" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U23" s="60">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="V23" s="60">
-        <f t="shared" si="4"/>
-        <v>470</v>
-      </c>
-      <c r="W23" s="60">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-      <c r="X23" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y23" s="61">
-        <f t="shared" si="6"/>
-        <v>20280</v>
-      </c>
-      <c r="Z23" s="58">
-        <f t="shared" si="3"/>
-        <v>20.28</v>
-      </c>
-      <c r="AA23" s="140">
-        <f t="shared" si="7"/>
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="AB23" s="65">
-        <f>(S23*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AC23" s="65">
-        <f>(T23*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD23" s="65">
-        <f>(U23*100)/$L$5</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="AE23" s="65">
-        <f>(V23*100)/$L$5</f>
-        <v>34.05797101449275</v>
-      </c>
-      <c r="AF23" s="65">
-        <f>(W23*100)/$L$5</f>
-        <v>46.376811594202898</v>
-      </c>
-      <c r="AG23" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH23" s="68">
-        <f t="shared" si="2"/>
-        <v>1.0923913043478259</v>
+        <v>1.2884615384615383</v>
       </c>
       <c r="AI23" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>93</v>
       </c>
@@ -30825,7 +30866,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D24" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42956.708333333336</v>
       </c>
       <c r="E24" s="51">
@@ -30843,14 +30884,14 @@
         <v>6.4</v>
       </c>
       <c r="J24" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="K24" s="51">
         <v>0.82</v>
       </c>
       <c r="L24" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>820</v>
       </c>
       <c r="M24" s="51">
@@ -30872,74 +30913,74 @@
         <v>0.02</v>
       </c>
       <c r="S24" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U24" s="60">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="V24" s="60">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="W24" s="60">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="X24" s="60">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Y24" s="61">
+        <f t="shared" si="8"/>
+        <v>13994.666666666666</v>
+      </c>
+      <c r="Z24" s="58">
+        <f t="shared" si="5"/>
+        <v>13.994666666666665</v>
+      </c>
+      <c r="AA24" s="118">
+        <f t="shared" si="9"/>
+        <v>0.23324444444444442</v>
+      </c>
+      <c r="AB24" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="65">
+        <f t="shared" si="12"/>
+        <v>1.2195121951219512</v>
+      </c>
+      <c r="AD24" s="65">
+        <f t="shared" si="13"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="AE24" s="65">
+        <f t="shared" si="14"/>
+        <v>40.243902439024389</v>
+      </c>
+      <c r="AF24" s="65">
+        <f t="shared" si="15"/>
+        <v>54.878048780487802</v>
+      </c>
+      <c r="AG24" s="65">
+        <f t="shared" si="3"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="AH24" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U24" s="60">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="V24" s="60">
-        <f t="shared" si="4"/>
-        <v>330</v>
-      </c>
-      <c r="W24" s="60">
-        <f t="shared" si="4"/>
-        <v>450</v>
-      </c>
-      <c r="X24" s="60">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="Y24" s="61">
-        <f t="shared" si="6"/>
-        <v>13994.666666666666</v>
-      </c>
-      <c r="Z24" s="58">
-        <f t="shared" si="3"/>
-        <v>13.994666666666665</v>
-      </c>
-      <c r="AA24" s="140">
-        <f t="shared" si="7"/>
-        <v>0.23324444444444442</v>
-      </c>
-      <c r="AB24" s="65">
-        <f>(S24*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="65">
-        <f>(T24*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD24" s="65">
-        <f>(U24*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AE24" s="65">
-        <f>(V24*100)/$L$5</f>
-        <v>23.913043478260871</v>
-      </c>
-      <c r="AF24" s="65">
-        <f>(W24*100)/$L$5</f>
-        <v>32.608695652173914</v>
-      </c>
-      <c r="AG24" s="65">
-        <f t="shared" si="1"/>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AH24" s="68">
-        <f t="shared" si="2"/>
-        <v>0.6557971014492755</v>
+        <v>1.1036585365853657</v>
       </c>
       <c r="AI24" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>94</v>
       </c>
@@ -30950,7 +30991,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D25" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42957.708333333336</v>
       </c>
       <c r="E25" s="51">
@@ -30968,14 +31009,14 @@
         <v>6.4</v>
       </c>
       <c r="J25" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="K25" s="51">
         <v>1.54</v>
       </c>
       <c r="L25" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1540</v>
       </c>
       <c r="M25" s="51">
@@ -30997,74 +31038,74 @@
         <v>0.01</v>
       </c>
       <c r="S25" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="60">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="U25" s="60">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="V25" s="60">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="W25" s="60">
+        <f t="shared" si="6"/>
+        <v>900</v>
+      </c>
+      <c r="X25" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y25" s="61">
+        <f>(J25/25)*(L25/E25)</f>
+        <v>26282.666666666672</v>
+      </c>
+      <c r="Z25" s="58">
+        <f t="shared" si="5"/>
+        <v>26.282666666666671</v>
+      </c>
+      <c r="AA25" s="118">
+        <f t="shared" si="9"/>
+        <v>0.43804444444444451</v>
+      </c>
+      <c r="AB25" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="65">
+        <f t="shared" si="12"/>
+        <v>3.8961038961038961</v>
+      </c>
+      <c r="AD25" s="65">
+        <f t="shared" si="13"/>
+        <v>3.8961038961038961</v>
+      </c>
+      <c r="AE25" s="65">
+        <f t="shared" si="14"/>
+        <v>33.766233766233768</v>
+      </c>
+      <c r="AF25" s="65">
+        <f t="shared" si="15"/>
+        <v>58.441558441558442</v>
+      </c>
+      <c r="AG25" s="65">
+        <f t="shared" si="3"/>
+        <v>0.64935064935064934</v>
+      </c>
+      <c r="AH25" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="60">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="U25" s="60">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="V25" s="60">
-        <f t="shared" si="4"/>
-        <v>520</v>
-      </c>
-      <c r="W25" s="60">
-        <f t="shared" si="4"/>
-        <v>900</v>
-      </c>
-      <c r="X25" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y25" s="61">
-        <f t="shared" si="6"/>
-        <v>26282.666666666672</v>
-      </c>
-      <c r="Z25" s="58">
-        <f t="shared" si="3"/>
-        <v>26.282666666666671</v>
-      </c>
-      <c r="AA25" s="140">
-        <f t="shared" si="7"/>
-        <v>0.43804444444444451</v>
-      </c>
-      <c r="AB25" s="65">
-        <f>(S25*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="65">
-        <f>(T25*100)/$L$5</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="AD25" s="65">
-        <f>(U25*100)/$L$5</f>
-        <v>4.3478260869565215</v>
-      </c>
-      <c r="AE25" s="65">
-        <f>(V25*100)/$L$5</f>
-        <v>37.681159420289852</v>
-      </c>
-      <c r="AF25" s="65">
-        <f>(W25*100)/$L$5</f>
-        <v>65.217391304347828</v>
-      </c>
-      <c r="AG25" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH25" s="68">
-        <f t="shared" si="2"/>
-        <v>1.4420289855072466</v>
+        <v>1.2922077922077924</v>
       </c>
       <c r="AI25" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>95</v>
       </c>
@@ -31075,7 +31116,7 @@
         <v>0.75</v>
       </c>
       <c r="D26" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42958.75</v>
       </c>
       <c r="E26" s="51">
@@ -31093,14 +31134,14 @@
         <v>6.2</v>
       </c>
       <c r="J26" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>620</v>
       </c>
       <c r="K26" s="51">
         <v>0.8</v>
       </c>
       <c r="L26" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="M26" s="51">
@@ -31122,11 +31163,11 @@
         <v>0.01</v>
       </c>
       <c r="S26" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T26" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="U26" s="60">
@@ -31134,62 +31175,62 @@
         <v>30</v>
       </c>
       <c r="V26" s="60">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="W26" s="60">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+      <c r="X26" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y26" s="61">
+        <f>(J26/25)*(L26/E26)</f>
+        <v>13226.666666666668</v>
+      </c>
+      <c r="Z26" s="58">
+        <f t="shared" si="5"/>
+        <v>13.226666666666668</v>
+      </c>
+      <c r="AA26" s="118">
+        <f t="shared" si="9"/>
+        <v>0.22044444444444447</v>
+      </c>
+      <c r="AB26" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="65">
+        <f t="shared" si="12"/>
+        <v>1.25</v>
+      </c>
+      <c r="AD26" s="65">
+        <f t="shared" si="13"/>
+        <v>3.75</v>
+      </c>
+      <c r="AE26" s="65">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AF26" s="65">
+        <f t="shared" si="15"/>
+        <v>52.5</v>
+      </c>
+      <c r="AG26" s="65">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+      <c r="AH26" s="68">
         <f t="shared" si="4"/>
-        <v>320</v>
-      </c>
-      <c r="W26" s="60">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="X26" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y26" s="61">
-        <f t="shared" si="6"/>
-        <v>13226.666666666668</v>
-      </c>
-      <c r="Z26" s="58">
-        <f t="shared" si="3"/>
-        <v>13.226666666666668</v>
-      </c>
-      <c r="AA26" s="140">
-        <f t="shared" si="7"/>
-        <v>0.22044444444444447</v>
-      </c>
-      <c r="AB26" s="65">
-        <f>(S26*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="65">
-        <f>(T26*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD26" s="65">
-        <f>(U26*100)/$L$5</f>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="AE26" s="65">
-        <f>(V26*100)/$L$5</f>
-        <v>23.188405797101449</v>
-      </c>
-      <c r="AF26" s="65">
-        <f>(W26*100)/$L$5</f>
-        <v>30.434782608695652</v>
-      </c>
-      <c r="AG26" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH26" s="68">
-        <f t="shared" si="2"/>
-        <v>0.65217391304347816</v>
+        <v>1.125</v>
       </c>
       <c r="AI26" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>96</v>
       </c>
@@ -31200,7 +31241,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D27" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42960.791666666664</v>
       </c>
       <c r="E27" s="51">
@@ -31218,14 +31259,14 @@
         <v>6.5</v>
       </c>
       <c r="J27" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
       <c r="K27" s="51">
         <v>0.67</v>
       </c>
       <c r="L27" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>670</v>
       </c>
       <c r="M27" s="51">
@@ -31247,74 +31288,74 @@
         <v>0.01</v>
       </c>
       <c r="S27" s="60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="U27" s="60">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="V27" s="60">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="W27" s="60">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="X27" s="60">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y27" s="61">
+        <f t="shared" si="8"/>
+        <v>5806.666666666667</v>
+      </c>
+      <c r="Z27" s="58">
+        <f t="shared" si="5"/>
+        <v>5.8066666666666666</v>
+      </c>
+      <c r="AA27" s="118">
+        <f t="shared" si="9"/>
+        <v>9.6777777777777782E-2</v>
+      </c>
+      <c r="AB27" s="65">
+        <f>(S27*100)/$L27</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="65">
+        <f t="shared" si="12"/>
+        <v>1.4925373134328359</v>
+      </c>
+      <c r="AD27" s="65">
+        <f t="shared" si="13"/>
+        <v>5.9701492537313436</v>
+      </c>
+      <c r="AE27" s="65">
+        <f t="shared" si="14"/>
+        <v>39.552238805970148</v>
+      </c>
+      <c r="AF27" s="65">
+        <f t="shared" si="15"/>
+        <v>53.731343283582092</v>
+      </c>
+      <c r="AG27" s="65">
+        <f t="shared" si="3"/>
+        <v>1.4925373134328359</v>
+      </c>
+      <c r="AH27" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="U27" s="60">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="V27" s="60">
-        <f t="shared" si="4"/>
-        <v>265</v>
-      </c>
-      <c r="W27" s="60">
-        <f t="shared" si="4"/>
-        <v>360</v>
-      </c>
-      <c r="X27" s="60">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="Y27" s="61">
-        <f t="shared" si="6"/>
-        <v>5806.666666666667</v>
-      </c>
-      <c r="Z27" s="58">
-        <f t="shared" si="3"/>
-        <v>5.8066666666666666</v>
-      </c>
-      <c r="AA27" s="140">
-        <f t="shared" si="7"/>
-        <v>9.6777777777777782E-2</v>
-      </c>
-      <c r="AB27" s="65">
-        <f>(S27*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="65">
-        <f>(T27*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD27" s="65">
-        <f>(U27*100)/$L$5</f>
-        <v>2.8985507246376812</v>
-      </c>
-      <c r="AE27" s="65">
-        <f>(V27*100)/$L$5</f>
-        <v>19.202898550724637</v>
-      </c>
-      <c r="AF27" s="65">
-        <f>(W27*100)/$L$5</f>
-        <v>26.086956521739129</v>
-      </c>
-      <c r="AG27" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AH27" s="68">
-        <f t="shared" si="2"/>
-        <v>0.59510869565217395</v>
+        <v>1.2257462686567167</v>
       </c>
       <c r="AI27" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="51" t="s">
         <v>97</v>
       </c>
@@ -31325,7 +31366,7 @@
         <v>0.75</v>
       </c>
       <c r="D28" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42963.75</v>
       </c>
       <c r="E28" s="51">
@@ -31343,14 +31384,14 @@
         <v>6.4</v>
       </c>
       <c r="J28" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="K28" s="51">
         <v>0.4</v>
       </c>
       <c r="L28" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="M28" s="51">
@@ -31372,74 +31413,74 @@
         <v>0.01</v>
       </c>
       <c r="S28" s="60">
-        <f t="shared" ref="S28:X30" si="9">M28*1000</f>
+        <f t="shared" ref="S28:X30" si="16">M28*1000</f>
         <v>0</v>
       </c>
       <c r="T28" s="60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="U28" s="60">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="V28" s="60">
+        <f t="shared" si="16"/>
+        <v>160</v>
+      </c>
+      <c r="W28" s="60">
+        <f t="shared" si="16"/>
+        <v>220</v>
+      </c>
+      <c r="X28" s="60">
+        <f>R28*1000</f>
+        <v>10</v>
+      </c>
+      <c r="Y28" s="61">
+        <f t="shared" si="8"/>
+        <v>6826.6666666666679</v>
+      </c>
+      <c r="Z28" s="58">
+        <f t="shared" si="5"/>
+        <v>6.826666666666668</v>
+      </c>
+      <c r="AA28" s="118">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="U28" s="60">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="V28" s="60">
-        <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="W28" s="60">
-        <f t="shared" si="9"/>
-        <v>220</v>
-      </c>
-      <c r="X28" s="60">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="Y28" s="61">
-        <f t="shared" si="6"/>
-        <v>6826.6666666666679</v>
-      </c>
-      <c r="Z28" s="58">
+        <v>0.1137777777777778</v>
+      </c>
+      <c r="AB28" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="65">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD28" s="65">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AE28" s="65">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AF28" s="65">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="AG28" s="65">
         <f t="shared" si="3"/>
-        <v>6.826666666666668</v>
-      </c>
-      <c r="AA28" s="140">
-        <f t="shared" si="7"/>
-        <v>0.1137777777777778</v>
-      </c>
-      <c r="AB28" s="65">
-        <f>(S28*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="65">
-        <f>(T28*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD28" s="65">
-        <f>(U28*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AE28" s="65">
-        <f>(V28*100)/$L$5</f>
-        <v>11.594202898550725</v>
-      </c>
-      <c r="AF28" s="65">
-        <f>(W28*100)/$L$5</f>
-        <v>15.942028985507246</v>
-      </c>
-      <c r="AG28" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
+        <v>2.5</v>
       </c>
       <c r="AH28" s="68">
-        <f t="shared" si="2"/>
-        <v>0.3731884057971015</v>
+        <f t="shared" si="4"/>
+        <v>1.2875000000000001</v>
       </c>
       <c r="AI28" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>98</v>
       </c>
@@ -31450,7 +31491,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D29" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42965.708333333336</v>
       </c>
       <c r="E29" s="51">
@@ -31468,14 +31509,14 @@
         <v>6.4</v>
       </c>
       <c r="J29" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="K29" s="51">
         <v>0.51</v>
       </c>
       <c r="L29" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="M29" s="51">
@@ -31497,74 +31538,74 @@
         <v>0.01</v>
       </c>
       <c r="S29" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="U29" s="60">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="V29" s="60">
+        <f t="shared" si="16"/>
+        <v>190</v>
+      </c>
+      <c r="W29" s="60">
+        <f>Q29*1000</f>
+        <v>295</v>
+      </c>
+      <c r="X29" s="60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="Y29" s="61">
+        <f t="shared" si="8"/>
+        <v>8704</v>
+      </c>
+      <c r="Z29" s="58">
+        <f t="shared" si="5"/>
+        <v>8.7040000000000006</v>
+      </c>
+      <c r="AA29" s="118">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="60">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="U29" s="60">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="V29" s="60">
-        <f t="shared" si="9"/>
-        <v>190</v>
-      </c>
-      <c r="W29" s="60">
-        <f t="shared" si="9"/>
-        <v>295</v>
-      </c>
-      <c r="X29" s="60">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="Y29" s="61">
-        <f t="shared" si="6"/>
-        <v>8704</v>
-      </c>
-      <c r="Z29" s="58">
+        <v>0.14506666666666668</v>
+      </c>
+      <c r="AB29" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="65">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="AD29" s="65">
+        <f t="shared" si="13"/>
+        <v>3.9215686274509802</v>
+      </c>
+      <c r="AE29" s="65">
+        <f t="shared" si="14"/>
+        <v>37.254901960784316</v>
+      </c>
+      <c r="AF29" s="65">
+        <f t="shared" si="15"/>
+        <v>57.843137254901961</v>
+      </c>
+      <c r="AG29" s="65">
         <f t="shared" si="3"/>
-        <v>8.7040000000000006</v>
-      </c>
-      <c r="AA29" s="140">
-        <f t="shared" si="7"/>
-        <v>0.14506666666666668</v>
-      </c>
-      <c r="AB29" s="65">
-        <f>(S29*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="65">
-        <f>(T29*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD29" s="65">
-        <f>(U29*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AE29" s="65">
-        <f>(V29*100)/$L$5</f>
-        <v>13.768115942028986</v>
-      </c>
-      <c r="AF29" s="65">
-        <f>(W29*100)/$L$5</f>
-        <v>21.376811594202898</v>
-      </c>
-      <c r="AG29" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
+        <v>1.9607843137254901</v>
       </c>
       <c r="AH29" s="68">
-        <f t="shared" si="2"/>
-        <v>0.44112318840579712</v>
+        <f t="shared" si="4"/>
+        <v>1.1936274509803921</v>
       </c>
       <c r="AI29" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="51" t="s">
         <v>99</v>
       </c>
@@ -31575,7 +31616,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D30" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42967.541666666664</v>
       </c>
       <c r="E30" s="51">
@@ -31593,7 +31634,7 @@
         <v>6.3</v>
       </c>
       <c r="J30" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>630</v>
       </c>
       <c r="K30" s="63">
@@ -31623,74 +31664,74 @@
         <v>0.01</v>
       </c>
       <c r="S30" s="60">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="U30" s="60">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="V30" s="60">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="W30" s="60">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="X30" s="60">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="Y30" s="61">
+        <f t="shared" si="8"/>
+        <v>4200</v>
+      </c>
+      <c r="Z30" s="58">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+      <c r="AA30" s="118">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="60">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="U30" s="60">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="V30" s="60">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="W30" s="60">
-        <f t="shared" si="9"/>
-        <v>110</v>
-      </c>
-      <c r="X30" s="60">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="Y30" s="61">
-        <f t="shared" si="6"/>
-        <v>4200</v>
-      </c>
-      <c r="Z30" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB30" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="65">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AD30" s="65">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AE30" s="65">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+      <c r="AF30" s="65">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+      <c r="AG30" s="65">
         <f t="shared" si="3"/>
-        <v>4.2</v>
-      </c>
-      <c r="AA30" s="140">
-        <f t="shared" si="7"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AB30" s="65">
-        <f>(S30*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="65">
-        <f>(T30*100)/$L$5</f>
-        <v>0.72463768115942029</v>
-      </c>
-      <c r="AD30" s="65">
-        <f>(U30*100)/$L$5</f>
-        <v>1.4492753623188406</v>
-      </c>
-      <c r="AE30" s="65">
-        <f>(V30*100)/$L$5</f>
-        <v>7.2463768115942031</v>
-      </c>
-      <c r="AF30" s="65">
-        <f>(W30*100)/$L$5</f>
-        <v>7.9710144927536231</v>
-      </c>
-      <c r="AG30" s="65">
-        <f t="shared" si="1"/>
-        <v>0.72463768115942029</v>
+        <v>4</v>
       </c>
       <c r="AH30" s="68">
-        <f t="shared" si="2"/>
-        <v>0.25905797101449274</v>
+        <f>(AB30*$AB$3+AC30*$AC$3+AD30*$AD$3+AE30*$AE$3+AF30*$AF$3+AG30*$AG$3)/100</f>
+        <v>1.43</v>
       </c>
       <c r="AI30" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="51" t="s">
         <v>100</v>
       </c>
@@ -31701,7 +31742,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D31" s="116">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42970.708333333336</v>
       </c>
       <c r="E31" s="51">
@@ -31719,14 +31760,14 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J31" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>919.99999999999989</v>
       </c>
       <c r="K31" s="51">
         <v>2.8</v>
       </c>
       <c r="L31" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2800</v>
       </c>
       <c r="M31" s="51">
@@ -31744,39 +31785,39 @@
       <c r="W31" s="64"/>
       <c r="X31" s="64"/>
       <c r="Y31" s="61">
-        <f t="shared" si="6"/>
+        <f>(J31/25)*(L31/E31)</f>
         <v>103039.99999999999</v>
       </c>
       <c r="Z31" s="58">
+        <f t="shared" si="5"/>
+        <v>103.03999999999999</v>
+      </c>
+      <c r="AA31" s="118">
+        <f t="shared" si="9"/>
+        <v>1.7173333333333332</v>
+      </c>
+      <c r="AB31" s="65">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="65">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="65">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="65">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="65">
         <f t="shared" si="3"/>
-        <v>103.03999999999999</v>
-      </c>
-      <c r="AA31" s="140">
-        <f t="shared" si="7"/>
-        <v>1.7173333333333332</v>
-      </c>
-      <c r="AB31" s="65">
-        <f>(S31*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="65">
-        <f>(T31*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="65">
-        <f>(U31*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="65">
-        <f>(V31*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="65">
-        <f>(W31*100)/$L$5</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH31" s="67"/>
@@ -31786,12 +31827,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S1:X2"/>
-    <mergeCell ref="Y1:Y3"/>
-    <mergeCell ref="Z1:Z3"/>
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:R2"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -31799,12 +31840,12 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:R2"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="S1:X2"/>
+    <mergeCell ref="Y1:Y3"/>
+    <mergeCell ref="Z1:Z3"/>
+    <mergeCell ref="AH1:AH3"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AA1:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -31819,39 +31860,39 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="94"/>
-    <col min="2" max="2" width="15.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="94"/>
-    <col min="4" max="4" width="41.42578125" style="94" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.85546875" style="94"/>
-    <col min="8" max="8" width="9.85546875" style="94" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="94"/>
-    <col min="10" max="11" width="10.28515625" style="94" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="8.85546875" style="94"/>
-    <col min="19" max="19" width="11.7109375" style="94" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="94"/>
+    <col min="1" max="1" width="8.88671875" style="94"/>
+    <col min="2" max="2" width="15.33203125" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="94"/>
+    <col min="4" max="4" width="41.44140625" style="94" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="94"/>
+    <col min="8" max="8" width="9.88671875" style="94" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="94"/>
+    <col min="10" max="11" width="10.33203125" style="94" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="8.88671875" style="94"/>
+    <col min="19" max="19" width="11.6640625" style="94" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="137" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="136" t="s">
         <v>149</v>
       </c>
       <c r="G1" s="92" t="s">
@@ -31894,13 +31935,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="135"/>
+    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="95">
         <f>0.0005</f>
         <v>5.0000000000000001E-4</v>
@@ -31942,7 +31983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="s">
         <v>150</v>
       </c>
@@ -32000,7 +32041,7 @@
         <v>4.6901999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="100" t="s">
         <v>152</v>
       </c>
@@ -32056,7 +32097,7 @@
         <v>7.3198000000000013E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="100" t="s">
         <v>154</v>
       </c>
@@ -32114,7 +32155,7 @@
         <v>5.8125499999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="100" t="s">
         <v>156</v>
       </c>
@@ -32172,7 +32213,7 @@
         <v>6.0731500000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="100" t="s">
         <v>158</v>
       </c>
@@ -32230,7 +32271,7 @@
         <v>9.3186999999999992E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="100" t="s">
         <v>160</v>
       </c>
@@ -32288,7 +32329,7 @@
         <v>7.3638999999999996E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="100" t="s">
         <v>163</v>
       </c>
@@ -32346,7 +32387,7 @@
         <v>3.8729499999999993E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="100" t="s">
         <v>165</v>
       </c>
@@ -32404,7 +32445,7 @@
         <v>5.4432500000000009E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="100" t="s">
         <v>167</v>
       </c>
@@ -32462,7 +32503,7 @@
         <v>0.31693199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="100" t="s">
         <v>169</v>
       </c>
@@ -32520,7 +32561,7 @@
         <v>3.1790000000000006E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="100" t="s">
         <v>171</v>
       </c>
@@ -32578,7 +32619,7 @@
         <v>8.2849000000000006E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="100" t="s">
         <v>173</v>
       </c>
@@ -32636,7 +32677,7 @@
         <v>4.7940999999999991E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="100" t="s">
         <v>175</v>
       </c>
@@ -32694,7 +32735,7 @@
         <v>2.9678E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="100" t="s">
         <v>177</v>
       </c>
@@ -32752,7 +32793,7 @@
         <v>4.7655000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="100" t="s">
         <v>179</v>
       </c>
@@ -32810,7 +32851,7 @@
         <v>4.4323499999999995E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="100" t="s">
         <v>181</v>
       </c>
@@ -32870,7 +32911,7 @@
         <v>3.6091499999999992E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="100" t="s">
         <v>183</v>
       </c>
@@ -32926,7 +32967,7 @@
         <v>6.8890500000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="100" t="s">
         <v>185</v>
       </c>
@@ -32984,7 +33025,7 @@
         <v>7.1646000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="100" t="s">
         <v>187</v>
       </c>
@@ -33042,7 +33083,7 @@
         <v>0.1311475</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="100" t="s">
         <v>189</v>
       </c>
@@ -33100,7 +33141,7 @@
         <v>7.9838999999999979E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="100" t="s">
         <v>191</v>
       </c>
@@ -33158,7 +33199,7 @@
         <v>0.13088549999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="100" t="s">
         <v>193</v>
       </c>
@@ -33216,7 +33257,7 @@
         <v>0.11080099999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="100" t="s">
         <v>195</v>
       </c>
